--- a/cleaned_90_or_higher.csv.xlsx
+++ b/cleaned_90_or_higher.csv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninahayford/github/Lab-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDCEA6D1-CC43-5643-AD5B-F0134DF17908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6390FCE-976C-DD4F-ABE6-E2E304F72278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{DCB47584-59B4-5C4A-998D-BC6BEBB0BC65}"/>
+    <workbookView xWindow="5560" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{DCB47584-59B4-5C4A-998D-BC6BEBB0BC65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_90_or_higher" localSheetId="0">Sheet1!$A$1:$S$267</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{834C0B16-1EB9-9A4D-8C98-CC81CEB3706C}" name="90_or_higher" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/ninahayford/github/Lab-7/90_or_higher.txt" delimited="0">
+    <textPr sourceFile="/Users/ninahayford/github/Lab-7/90_or_higher.txt" delimited="0">
       <textFields count="15">
         <textField/>
         <textField position="36"/>
@@ -1083,13 +1083,13 @@
     <t>Station_ID</t>
   </si>
   <si>
-    <t>Station_Name</t>
-  </si>
-  <si>
     <t>Start_Date</t>
   </si>
   <si>
     <t>End_Date</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF61E06A-785A-C342-8063-3F4A375F7859}">
   <dimension ref="A1:S267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1488,13 +1488,13 @@
         <v>338</v>
       </c>
       <c r="D1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" t="s">
         <v>339</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>340</v>
-      </c>
-      <c r="F1" t="s">
-        <v>341</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1544,11 +1544,11 @@
         <v>20</v>
       </c>
       <c r="C2" t="str">
-        <f>LEFT(A2, 5)</f>
+        <f t="shared" ref="C2:C65" si="0">LEFT(A2, 5)</f>
         <v>13876</v>
       </c>
       <c r="D2" t="str">
-        <f>MID(A2, 6, LEN(A2)-5)</f>
+        <f t="shared" ref="D2:D65" si="1">MID(A2, 6, LEN(A2)-5)</f>
         <v>BIRMINGHAM</v>
       </c>
       <c r="E2">
@@ -1605,11 +1605,11 @@
         <v>20</v>
       </c>
       <c r="C3" t="str">
-        <f>LEFT(A3, 5)</f>
+        <f t="shared" si="0"/>
         <v>03856</v>
       </c>
       <c r="D3" t="str">
-        <f>MID(A3, 6, LEN(A3)-5)</f>
+        <f t="shared" si="1"/>
         <v>HUNTSVILLE</v>
       </c>
       <c r="E3">
@@ -1666,11 +1666,11 @@
         <v>20</v>
       </c>
       <c r="C4" t="str">
-        <f>LEFT(A4, 5)</f>
+        <f t="shared" si="0"/>
         <v>13894</v>
       </c>
       <c r="D4" t="str">
-        <f>MID(A4, 6, LEN(A4)-5)</f>
+        <f t="shared" si="1"/>
         <v>MOBILE</v>
       </c>
       <c r="E4">
@@ -1727,11 +1727,11 @@
         <v>20</v>
       </c>
       <c r="C5" t="str">
-        <f>LEFT(A5, 5)</f>
+        <f t="shared" si="0"/>
         <v>13895</v>
       </c>
       <c r="D5" t="str">
-        <f>MID(A5, 6, LEN(A5)-5)</f>
+        <f t="shared" si="1"/>
         <v>MONTGOMERY</v>
       </c>
       <c r="E5">
@@ -1788,11 +1788,11 @@
         <v>25</v>
       </c>
       <c r="C6" t="str">
-        <f>LEFT(A6, 5)</f>
+        <f t="shared" si="0"/>
         <v>26451</v>
       </c>
       <c r="D6" t="str">
-        <f>MID(A6, 6, LEN(A6)-5)</f>
+        <f t="shared" si="1"/>
         <v>ANCHORAGE</v>
       </c>
       <c r="E6">
@@ -1849,11 +1849,11 @@
         <v>25</v>
       </c>
       <c r="C7" t="str">
-        <f>LEFT(A7, 5)</f>
+        <f t="shared" si="0"/>
         <v>25308</v>
       </c>
       <c r="D7" t="str">
-        <f>MID(A7, 6, LEN(A7)-5)</f>
+        <f t="shared" si="1"/>
         <v>ANNETTE</v>
       </c>
       <c r="E7">
@@ -1910,11 +1910,11 @@
         <v>25</v>
       </c>
       <c r="C8" t="str">
-        <f>LEFT(A8, 5)</f>
+        <f t="shared" si="0"/>
         <v>27502</v>
       </c>
       <c r="D8" t="str">
-        <f>MID(A8, 6, LEN(A8)-5)</f>
+        <f t="shared" si="1"/>
         <v>BARROW</v>
       </c>
       <c r="E8">
@@ -1971,11 +1971,11 @@
         <v>25</v>
       </c>
       <c r="C9" t="str">
-        <f>LEFT(A9, 5)</f>
+        <f t="shared" si="0"/>
         <v>26615</v>
       </c>
       <c r="D9" t="str">
-        <f>MID(A9, 6, LEN(A9)-5)</f>
+        <f t="shared" si="1"/>
         <v>BETHEL</v>
       </c>
       <c r="E9">
@@ -2032,11 +2032,11 @@
         <v>25</v>
       </c>
       <c r="C10" t="str">
-        <f>LEFT(A10, 5)</f>
+        <f t="shared" si="0"/>
         <v>26533</v>
       </c>
       <c r="D10" t="str">
-        <f>MID(A10, 6, LEN(A10)-5)</f>
+        <f t="shared" si="1"/>
         <v>BETTLES</v>
       </c>
       <c r="E10">
@@ -2093,11 +2093,11 @@
         <v>25</v>
       </c>
       <c r="C11" t="str">
-        <f>LEFT(A11, 5)</f>
+        <f t="shared" si="0"/>
         <v>26415</v>
       </c>
       <c r="D11" t="str">
-        <f>MID(A11, 6, LEN(A11)-5)</f>
+        <f t="shared" si="1"/>
         <v>BIG DELTA</v>
       </c>
       <c r="E11">
@@ -2154,11 +2154,11 @@
         <v>25</v>
       </c>
       <c r="C12" t="str">
-        <f>LEFT(A12, 5)</f>
+        <f t="shared" si="0"/>
         <v>25624</v>
       </c>
       <c r="D12" t="str">
-        <f>MID(A12, 6, LEN(A12)-5)</f>
+        <f t="shared" si="1"/>
         <v>COLD BAY</v>
       </c>
       <c r="E12">
@@ -2215,11 +2215,11 @@
         <v>25</v>
       </c>
       <c r="C13" t="str">
-        <f>LEFT(A13, 5)</f>
+        <f t="shared" si="0"/>
         <v>26411</v>
       </c>
       <c r="D13" t="str">
-        <f>MID(A13, 6, LEN(A13)-5)</f>
+        <f t="shared" si="1"/>
         <v>FAIRBANKS</v>
       </c>
       <c r="E13">
@@ -2276,11 +2276,11 @@
         <v>25</v>
       </c>
       <c r="C14" t="str">
-        <f>LEFT(A14, 5)</f>
+        <f t="shared" si="0"/>
         <v>26425</v>
       </c>
       <c r="D14" t="str">
-        <f>MID(A14, 6, LEN(A14)-5)</f>
+        <f t="shared" si="1"/>
         <v>GULKANA</v>
       </c>
       <c r="E14">
@@ -2337,11 +2337,11 @@
         <v>25</v>
       </c>
       <c r="C15" t="str">
-        <f>LEFT(A15, 5)</f>
+        <f t="shared" si="0"/>
         <v>25507</v>
       </c>
       <c r="D15" t="str">
-        <f>MID(A15, 6, LEN(A15)-5)</f>
+        <f t="shared" si="1"/>
         <v>HOMER</v>
       </c>
       <c r="E15">
@@ -2398,11 +2398,11 @@
         <v>25</v>
       </c>
       <c r="C16" t="str">
-        <f>LEFT(A16, 5)</f>
+        <f t="shared" si="0"/>
         <v>25309</v>
       </c>
       <c r="D16" t="str">
-        <f>MID(A16, 6, LEN(A16)-5)</f>
+        <f t="shared" si="1"/>
         <v>JUNEAU</v>
       </c>
       <c r="E16">
@@ -2459,11 +2459,11 @@
         <v>25</v>
       </c>
       <c r="C17" t="str">
-        <f>LEFT(A17, 5)</f>
+        <f t="shared" si="0"/>
         <v>25503</v>
       </c>
       <c r="D17" t="str">
-        <f>MID(A17, 6, LEN(A17)-5)</f>
+        <f t="shared" si="1"/>
         <v>KING SALMON</v>
       </c>
       <c r="E17">
@@ -2520,11 +2520,11 @@
         <v>25</v>
       </c>
       <c r="C18" t="str">
-        <f>LEFT(A18, 5)</f>
+        <f t="shared" si="0"/>
         <v>25501</v>
       </c>
       <c r="D18" t="str">
-        <f>MID(A18, 6, LEN(A18)-5)</f>
+        <f t="shared" si="1"/>
         <v>KODIAK</v>
       </c>
       <c r="E18">
@@ -2581,11 +2581,11 @@
         <v>25</v>
       </c>
       <c r="C19" t="str">
-        <f>LEFT(A19, 5)</f>
+        <f t="shared" si="0"/>
         <v>26616</v>
       </c>
       <c r="D19" t="str">
-        <f>MID(A19, 6, LEN(A19)-5)</f>
+        <f t="shared" si="1"/>
         <v>KOTZEBUE</v>
       </c>
       <c r="E19">
@@ -2642,11 +2642,11 @@
         <v>25</v>
       </c>
       <c r="C20" t="str">
-        <f>LEFT(A20, 5)</f>
+        <f t="shared" si="0"/>
         <v>26510</v>
       </c>
       <c r="D20" t="str">
-        <f>MID(A20, 6, LEN(A20)-5)</f>
+        <f t="shared" si="1"/>
         <v>MCGRATH</v>
       </c>
       <c r="E20">
@@ -2703,11 +2703,11 @@
         <v>25</v>
       </c>
       <c r="C21" t="str">
-        <f>LEFT(A21, 5)</f>
+        <f t="shared" si="0"/>
         <v>26617</v>
       </c>
       <c r="D21" t="str">
-        <f>MID(A21, 6, LEN(A21)-5)</f>
+        <f t="shared" si="1"/>
         <v>NOME</v>
       </c>
       <c r="E21">
@@ -2764,11 +2764,11 @@
         <v>25</v>
       </c>
       <c r="C22" t="str">
-        <f>LEFT(A22, 5)</f>
+        <f t="shared" si="0"/>
         <v>25713</v>
       </c>
       <c r="D22" t="str">
-        <f>MID(A22, 6, LEN(A22)-5)</f>
+        <f t="shared" si="1"/>
         <v>ST. PAUL ISLAND</v>
       </c>
       <c r="E22">
@@ -2825,11 +2825,11 @@
         <v>25</v>
       </c>
       <c r="C23" t="str">
-        <f>LEFT(A23, 5)</f>
+        <f t="shared" si="0"/>
         <v>26528</v>
       </c>
       <c r="D23" t="str">
-        <f>MID(A23, 6, LEN(A23)-5)</f>
+        <f t="shared" si="1"/>
         <v>TALKEETNA</v>
       </c>
       <c r="E23">
@@ -2886,11 +2886,11 @@
         <v>25</v>
       </c>
       <c r="C24" t="str">
-        <f>LEFT(A24, 5)</f>
+        <f t="shared" si="0"/>
         <v>26442</v>
       </c>
       <c r="D24" t="str">
-        <f>MID(A24, 6, LEN(A24)-5)</f>
+        <f t="shared" si="1"/>
         <v>VALDEZ</v>
       </c>
       <c r="E24">
@@ -2947,11 +2947,11 @@
         <v>25</v>
       </c>
       <c r="C25" t="str">
-        <f>LEFT(A25, 5)</f>
+        <f t="shared" si="0"/>
         <v>25339</v>
       </c>
       <c r="D25" t="str">
-        <f>MID(A25, 6, LEN(A25)-5)</f>
+        <f t="shared" si="1"/>
         <v>YAKUTAT</v>
       </c>
       <c r="E25">
@@ -3008,11 +3008,11 @@
         <v>46</v>
       </c>
       <c r="C26" t="str">
-        <f>LEFT(A26, 5)</f>
+        <f t="shared" si="0"/>
         <v>03103</v>
       </c>
       <c r="D26" t="str">
-        <f>MID(A26, 6, LEN(A26)-5)</f>
+        <f t="shared" si="1"/>
         <v>FLAGSTAFF</v>
       </c>
       <c r="E26">
@@ -3069,11 +3069,11 @@
         <v>46</v>
       </c>
       <c r="C27" t="str">
-        <f>LEFT(A27, 5)</f>
+        <f t="shared" si="0"/>
         <v>23183</v>
       </c>
       <c r="D27" t="str">
-        <f>MID(A27, 6, LEN(A27)-5)</f>
+        <f t="shared" si="1"/>
         <v>PHOENIX</v>
       </c>
       <c r="E27">
@@ -3130,11 +3130,11 @@
         <v>46</v>
       </c>
       <c r="C28" t="str">
-        <f>LEFT(A28, 5)</f>
+        <f t="shared" si="0"/>
         <v>23160</v>
       </c>
       <c r="D28" t="str">
-        <f>MID(A28, 6, LEN(A28)-5)</f>
+        <f t="shared" si="1"/>
         <v>TUCSON</v>
       </c>
       <c r="E28">
@@ -3191,11 +3191,11 @@
         <v>46</v>
       </c>
       <c r="C29" t="str">
-        <f>LEFT(A29, 5)</f>
+        <f t="shared" si="0"/>
         <v>23194</v>
       </c>
       <c r="D29" t="str">
-        <f>MID(A29, 6, LEN(A29)-5)</f>
+        <f t="shared" si="1"/>
         <v>WINSLOW</v>
       </c>
       <c r="E29">
@@ -3252,11 +3252,11 @@
         <v>51</v>
       </c>
       <c r="C30" t="str">
-        <f>LEFT(A30, 5)</f>
+        <f t="shared" si="0"/>
         <v>13964</v>
       </c>
       <c r="D30" t="str">
-        <f>MID(A30, 6, LEN(A30)-5)</f>
+        <f t="shared" si="1"/>
         <v>FORT SMITH</v>
       </c>
       <c r="E30">
@@ -3313,11 +3313,11 @@
         <v>51</v>
       </c>
       <c r="C31" t="str">
-        <f>LEFT(A31, 5)</f>
+        <f t="shared" si="0"/>
         <v>13963</v>
       </c>
       <c r="D31" t="str">
-        <f>MID(A31, 6, LEN(A31)-5)</f>
+        <f t="shared" si="1"/>
         <v>LITTLE ROCK</v>
       </c>
       <c r="E31">
@@ -3374,11 +3374,11 @@
         <v>54</v>
       </c>
       <c r="C32" t="str">
-        <f>LEFT(A32, 5)</f>
+        <f t="shared" si="0"/>
         <v>23155</v>
       </c>
       <c r="D32" t="str">
-        <f>MID(A32, 6, LEN(A32)-5)</f>
+        <f t="shared" si="1"/>
         <v>BAKERSFIELD</v>
       </c>
       <c r="E32">
@@ -3435,11 +3435,11 @@
         <v>54</v>
       </c>
       <c r="C33" t="str">
-        <f>LEFT(A33, 5)</f>
+        <f t="shared" si="0"/>
         <v>23157</v>
       </c>
       <c r="D33" t="str">
-        <f>MID(A33, 6, LEN(A33)-5)</f>
+        <f t="shared" si="1"/>
         <v>BISHOP</v>
       </c>
       <c r="E33">
@@ -3496,11 +3496,11 @@
         <v>54</v>
       </c>
       <c r="C34" t="str">
-        <f>LEFT(A34, 5)</f>
+        <f t="shared" si="0"/>
         <v>23225</v>
       </c>
       <c r="D34" t="str">
-        <f>MID(A34, 6, LEN(A34)-5)</f>
+        <f t="shared" si="1"/>
         <v>BLUE CANYON</v>
       </c>
       <c r="E34">
@@ -3557,11 +3557,11 @@
         <v>54</v>
       </c>
       <c r="C35" t="str">
-        <f>LEFT(A35, 5)</f>
+        <f t="shared" si="0"/>
         <v>93193</v>
       </c>
       <c r="D35" t="str">
-        <f>MID(A35, 6, LEN(A35)-5)</f>
+        <f t="shared" si="1"/>
         <v>FRESNO</v>
       </c>
       <c r="E35">
@@ -3618,11 +3618,11 @@
         <v>54</v>
       </c>
       <c r="C36" t="str">
-        <f>LEFT(A36, 5)</f>
+        <f t="shared" si="0"/>
         <v>23129</v>
       </c>
       <c r="D36" t="str">
-        <f>MID(A36, 6, LEN(A36)-5)</f>
+        <f t="shared" si="1"/>
         <v>LONG BEACH</v>
       </c>
       <c r="E36">
@@ -3679,11 +3679,11 @@
         <v>54</v>
       </c>
       <c r="C37" t="str">
-        <f>LEFT(A37, 5)</f>
+        <f t="shared" si="0"/>
         <v>93134</v>
       </c>
       <c r="D37" t="str">
-        <f>MID(A37, 6, LEN(A37)-5)</f>
+        <f t="shared" si="1"/>
         <v>LOS ANGELES</v>
       </c>
       <c r="E37">
@@ -3740,11 +3740,11 @@
         <v>54</v>
       </c>
       <c r="C38" t="str">
-        <f>LEFT(A38, 5)</f>
+        <f t="shared" si="0"/>
         <v>24257</v>
       </c>
       <c r="D38" t="str">
-        <f>MID(A38, 6, LEN(A38)-5)</f>
+        <f t="shared" si="1"/>
         <v>REDDING</v>
       </c>
       <c r="E38">
@@ -3801,11 +3801,11 @@
         <v>54</v>
       </c>
       <c r="C39" t="str">
-        <f>LEFT(A39, 5)</f>
+        <f t="shared" si="0"/>
         <v>23232</v>
       </c>
       <c r="D39" t="str">
-        <f>MID(A39, 6, LEN(A39)-5)</f>
+        <f t="shared" si="1"/>
         <v>SACRAMENTO</v>
       </c>
       <c r="E39">
@@ -3862,11 +3862,11 @@
         <v>54</v>
       </c>
       <c r="C40" t="str">
-        <f>LEFT(A40, 5)</f>
+        <f t="shared" si="0"/>
         <v>23188</v>
       </c>
       <c r="D40" t="str">
-        <f>MID(A40, 6, LEN(A40)-5)</f>
+        <f t="shared" si="1"/>
         <v>SAN DIEGO</v>
       </c>
       <c r="E40">
@@ -3923,11 +3923,11 @@
         <v>54</v>
       </c>
       <c r="C41" t="str">
-        <f>LEFT(A41, 5)</f>
+        <f t="shared" si="0"/>
         <v>23272</v>
       </c>
       <c r="D41" t="str">
-        <f>MID(A41, 6, LEN(A41)-5)</f>
+        <f t="shared" si="1"/>
         <v>SAN FRANCISCO</v>
       </c>
       <c r="E41">
@@ -3984,11 +3984,11 @@
         <v>54</v>
       </c>
       <c r="C42" t="str">
-        <f>LEFT(A42, 5)</f>
+        <f t="shared" si="0"/>
         <v>23190</v>
       </c>
       <c r="D42" t="str">
-        <f>MID(A42, 6, LEN(A42)-5)</f>
+        <f t="shared" si="1"/>
         <v>SANTA BARBARA</v>
       </c>
       <c r="E42">
@@ -4045,11 +4045,11 @@
         <v>54</v>
       </c>
       <c r="C43" t="str">
-        <f>LEFT(A43, 5)</f>
+        <f t="shared" si="0"/>
         <v>23273</v>
       </c>
       <c r="D43" t="str">
-        <f>MID(A43, 6, LEN(A43)-5)</f>
+        <f t="shared" si="1"/>
         <v>SANTA MARIA</v>
       </c>
       <c r="E43">
@@ -4106,11 +4106,11 @@
         <v>54</v>
       </c>
       <c r="C44" t="str">
-        <f>LEFT(A44, 5)</f>
+        <f t="shared" si="0"/>
         <v>23237</v>
       </c>
       <c r="D44" t="str">
-        <f>MID(A44, 6, LEN(A44)-5)</f>
+        <f t="shared" si="1"/>
         <v>STOCKTON</v>
       </c>
       <c r="E44">
@@ -4167,11 +4167,11 @@
         <v>68</v>
       </c>
       <c r="C45" t="str">
-        <f>LEFT(A45, 5)</f>
+        <f t="shared" si="0"/>
         <v>23061</v>
       </c>
       <c r="D45" t="str">
-        <f>MID(A45, 6, LEN(A45)-5)</f>
+        <f t="shared" si="1"/>
         <v>ALAMOSA</v>
       </c>
       <c r="E45">
@@ -4228,11 +4228,11 @@
         <v>68</v>
       </c>
       <c r="C46" t="str">
-        <f>LEFT(A46, 5)</f>
+        <f t="shared" si="0"/>
         <v>93037</v>
       </c>
       <c r="D46" t="str">
-        <f>MID(A46, 6, LEN(A46)-5)</f>
+        <f t="shared" si="1"/>
         <v>COLORADO SPRINGS</v>
       </c>
       <c r="E46">
@@ -4289,11 +4289,11 @@
         <v>68</v>
       </c>
       <c r="C47" t="str">
-        <f>LEFT(A47, 5)</f>
+        <f t="shared" si="0"/>
         <v>03017</v>
       </c>
       <c r="D47" t="str">
-        <f>MID(A47, 6, LEN(A47)-5)</f>
+        <f t="shared" si="1"/>
         <v>DENVER</v>
       </c>
       <c r="E47">
@@ -4350,11 +4350,11 @@
         <v>68</v>
       </c>
       <c r="C48" t="str">
-        <f>LEFT(A48, 5)</f>
+        <f t="shared" si="0"/>
         <v>23066</v>
       </c>
       <c r="D48" t="str">
-        <f>MID(A48, 6, LEN(A48)-5)</f>
+        <f t="shared" si="1"/>
         <v>GRAND JUNCTION</v>
       </c>
       <c r="E48">
@@ -4411,11 +4411,11 @@
         <v>68</v>
       </c>
       <c r="C49" t="str">
-        <f>LEFT(A49, 5)</f>
+        <f t="shared" si="0"/>
         <v>93058</v>
       </c>
       <c r="D49" t="str">
-        <f>MID(A49, 6, LEN(A49)-5)</f>
+        <f t="shared" si="1"/>
         <v>PUEBLO</v>
       </c>
       <c r="E49">
@@ -4472,11 +4472,11 @@
         <v>74</v>
       </c>
       <c r="C50" t="str">
-        <f>LEFT(A50, 5)</f>
+        <f t="shared" si="0"/>
         <v>94702</v>
       </c>
       <c r="D50" t="str">
-        <f>MID(A50, 6, LEN(A50)-5)</f>
+        <f t="shared" si="1"/>
         <v>BRIDGEPORT</v>
       </c>
       <c r="E50">
@@ -4533,11 +4533,11 @@
         <v>74</v>
       </c>
       <c r="C51" t="str">
-        <f>LEFT(A51, 5)</f>
+        <f t="shared" si="0"/>
         <v>14740</v>
       </c>
       <c r="D51" t="str">
-        <f>MID(A51, 6, LEN(A51)-5)</f>
+        <f t="shared" si="1"/>
         <v>HARTFORD</v>
       </c>
       <c r="E51">
@@ -4594,11 +4594,11 @@
         <v>77</v>
       </c>
       <c r="C52" t="str">
-        <f>LEFT(A52, 5)</f>
+        <f t="shared" si="0"/>
         <v>13781</v>
       </c>
       <c r="D52" t="str">
-        <f>MID(A52, 6, LEN(A52)-5)</f>
+        <f t="shared" si="1"/>
         <v>WILMINGTON</v>
       </c>
       <c r="E52">
@@ -4655,11 +4655,11 @@
         <v>79</v>
       </c>
       <c r="C53" t="str">
-        <f>LEFT(A53, 5)</f>
+        <f t="shared" si="0"/>
         <v>93738</v>
       </c>
       <c r="D53" t="str">
-        <f>MID(A53, 6, LEN(A53)-5)</f>
+        <f t="shared" si="1"/>
         <v>WASHINGTON DULLES</v>
       </c>
       <c r="E53">
@@ -4716,11 +4716,11 @@
         <v>79</v>
       </c>
       <c r="C54" t="str">
-        <f>LEFT(A54, 5)</f>
+        <f t="shared" si="0"/>
         <v>13743</v>
       </c>
       <c r="D54" t="str">
-        <f>MID(A54, 6, LEN(A54)-5)</f>
+        <f t="shared" si="1"/>
         <v>WASHINGTON NAT'L</v>
       </c>
       <c r="E54">
@@ -4777,11 +4777,11 @@
         <v>82</v>
       </c>
       <c r="C55" t="str">
-        <f>LEFT(A55, 5)</f>
+        <f t="shared" si="0"/>
         <v>12834</v>
       </c>
       <c r="D55" t="str">
-        <f>MID(A55, 6, LEN(A55)-5)</f>
+        <f t="shared" si="1"/>
         <v>DAYTONA BEACH</v>
       </c>
       <c r="E55">
@@ -4838,11 +4838,11 @@
         <v>82</v>
       </c>
       <c r="C56" t="str">
-        <f>LEFT(A56, 5)</f>
+        <f t="shared" si="0"/>
         <v>12835</v>
       </c>
       <c r="D56" t="str">
-        <f>MID(A56, 6, LEN(A56)-5)</f>
+        <f t="shared" si="1"/>
         <v>FORT MYERS</v>
       </c>
       <c r="E56">
@@ -4899,11 +4899,11 @@
         <v>82</v>
       </c>
       <c r="C57" t="str">
-        <f>LEFT(A57, 5)</f>
+        <f t="shared" si="0"/>
         <v>12816</v>
       </c>
       <c r="D57" t="str">
-        <f>MID(A57, 6, LEN(A57)-5)</f>
+        <f t="shared" si="1"/>
         <v>GAINESVILLE</v>
       </c>
       <c r="E57">
@@ -4960,11 +4960,11 @@
         <v>82</v>
       </c>
       <c r="C58" t="str">
-        <f>LEFT(A58, 5)</f>
+        <f t="shared" si="0"/>
         <v>13889</v>
       </c>
       <c r="D58" t="str">
-        <f>MID(A58, 6, LEN(A58)-5)</f>
+        <f t="shared" si="1"/>
         <v>JACKSONVILLE</v>
       </c>
       <c r="E58">
@@ -5021,11 +5021,11 @@
         <v>82</v>
       </c>
       <c r="C59" t="str">
-        <f>LEFT(A59, 5)</f>
+        <f t="shared" si="0"/>
         <v>12836</v>
       </c>
       <c r="D59" t="str">
-        <f>MID(A59, 6, LEN(A59)-5)</f>
+        <f t="shared" si="1"/>
         <v>KEY WEST</v>
       </c>
       <c r="E59">
@@ -5082,11 +5082,11 @@
         <v>82</v>
       </c>
       <c r="C60" t="str">
-        <f>LEFT(A60, 5)</f>
+        <f t="shared" si="0"/>
         <v>12839</v>
       </c>
       <c r="D60" t="str">
-        <f>MID(A60, 6, LEN(A60)-5)</f>
+        <f t="shared" si="1"/>
         <v>MIAMI</v>
       </c>
       <c r="E60">
@@ -5143,11 +5143,11 @@
         <v>82</v>
       </c>
       <c r="C61" t="str">
-        <f>LEFT(A61, 5)</f>
+        <f t="shared" si="0"/>
         <v>12815</v>
       </c>
       <c r="D61" t="str">
-        <f>MID(A61, 6, LEN(A61)-5)</f>
+        <f t="shared" si="1"/>
         <v>ORLANDO</v>
       </c>
       <c r="E61">
@@ -5204,11 +5204,11 @@
         <v>82</v>
       </c>
       <c r="C62" t="str">
-        <f>LEFT(A62, 5)</f>
+        <f t="shared" si="0"/>
         <v>13899</v>
       </c>
       <c r="D62" t="str">
-        <f>MID(A62, 6, LEN(A62)-5)</f>
+        <f t="shared" si="1"/>
         <v>PENSACOLA</v>
       </c>
       <c r="E62">
@@ -5265,11 +5265,11 @@
         <v>82</v>
       </c>
       <c r="C63" t="str">
-        <f>LEFT(A63, 5)</f>
+        <f t="shared" si="0"/>
         <v>93805</v>
       </c>
       <c r="D63" t="str">
-        <f>MID(A63, 6, LEN(A63)-5)</f>
+        <f t="shared" si="1"/>
         <v>TALLAHASSEE</v>
       </c>
       <c r="E63">
@@ -5326,11 +5326,11 @@
         <v>82</v>
       </c>
       <c r="C64" t="str">
-        <f>LEFT(A64, 5)</f>
+        <f t="shared" si="0"/>
         <v>12842</v>
       </c>
       <c r="D64" t="str">
-        <f>MID(A64, 6, LEN(A64)-5)</f>
+        <f t="shared" si="1"/>
         <v>TAMPA</v>
       </c>
       <c r="E64">
@@ -5387,11 +5387,11 @@
         <v>82</v>
       </c>
       <c r="C65" t="str">
-        <f>LEFT(A65, 5)</f>
+        <f t="shared" si="0"/>
         <v>12843</v>
       </c>
       <c r="D65" t="str">
-        <f>MID(A65, 6, LEN(A65)-5)</f>
+        <f t="shared" si="1"/>
         <v>VERO BEACH</v>
       </c>
       <c r="E65">
@@ -5448,11 +5448,11 @@
         <v>82</v>
       </c>
       <c r="C66" t="str">
-        <f>LEFT(A66, 5)</f>
+        <f t="shared" ref="C66:C129" si="2">LEFT(A66, 5)</f>
         <v>12844</v>
       </c>
       <c r="D66" t="str">
-        <f>MID(A66, 6, LEN(A66)-5)</f>
+        <f t="shared" ref="D66:D129" si="3">MID(A66, 6, LEN(A66)-5)</f>
         <v>WEST PALM BEACH</v>
       </c>
       <c r="E66">
@@ -5509,11 +5509,11 @@
         <v>95</v>
       </c>
       <c r="C67" t="str">
-        <f>LEFT(A67, 5)</f>
+        <f t="shared" si="2"/>
         <v>13873</v>
       </c>
       <c r="D67" t="str">
-        <f>MID(A67, 6, LEN(A67)-5)</f>
+        <f t="shared" si="3"/>
         <v>ATHENS</v>
       </c>
       <c r="E67">
@@ -5570,11 +5570,11 @@
         <v>95</v>
       </c>
       <c r="C68" t="str">
-        <f>LEFT(A68, 5)</f>
+        <f t="shared" si="2"/>
         <v>13874</v>
       </c>
       <c r="D68" t="str">
-        <f>MID(A68, 6, LEN(A68)-5)</f>
+        <f t="shared" si="3"/>
         <v>ATLANTA</v>
       </c>
       <c r="E68">
@@ -5631,11 +5631,11 @@
         <v>95</v>
       </c>
       <c r="C69" t="str">
-        <f>LEFT(A69, 5)</f>
+        <f t="shared" si="2"/>
         <v>03820</v>
       </c>
       <c r="D69" t="str">
-        <f>MID(A69, 6, LEN(A69)-5)</f>
+        <f t="shared" si="3"/>
         <v>AUGUSTA</v>
       </c>
       <c r="E69">
@@ -5692,11 +5692,11 @@
         <v>95</v>
       </c>
       <c r="C70" t="str">
-        <f>LEFT(A70, 5)</f>
+        <f t="shared" si="2"/>
         <v>93842</v>
       </c>
       <c r="D70" t="str">
-        <f>MID(A70, 6, LEN(A70)-5)</f>
+        <f t="shared" si="3"/>
         <v>COLUMBUS</v>
       </c>
       <c r="E70">
@@ -5753,11 +5753,11 @@
         <v>95</v>
       </c>
       <c r="C71" t="str">
-        <f>LEFT(A71, 5)</f>
+        <f t="shared" si="2"/>
         <v>03813</v>
       </c>
       <c r="D71" t="str">
-        <f>MID(A71, 6, LEN(A71)-5)</f>
+        <f t="shared" si="3"/>
         <v>MACON</v>
       </c>
       <c r="E71">
@@ -5814,11 +5814,11 @@
         <v>95</v>
       </c>
       <c r="C72" t="str">
-        <f>LEFT(A72, 5)</f>
+        <f t="shared" si="2"/>
         <v>03822</v>
       </c>
       <c r="D72" t="str">
-        <f>MID(A72, 6, LEN(A72)-5)</f>
+        <f t="shared" si="3"/>
         <v>SAVANNAH</v>
       </c>
       <c r="E72">
@@ -5875,11 +5875,11 @@
         <v>102</v>
       </c>
       <c r="C73" t="str">
-        <f>LEFT(A73, 5)</f>
+        <f t="shared" si="2"/>
         <v>21504</v>
       </c>
       <c r="D73" t="str">
-        <f>MID(A73, 6, LEN(A73)-5)</f>
+        <f t="shared" si="3"/>
         <v>HILO</v>
       </c>
       <c r="E73">
@@ -5936,11 +5936,11 @@
         <v>102</v>
       </c>
       <c r="C74" t="str">
-        <f>LEFT(A74, 5)</f>
+        <f t="shared" si="2"/>
         <v>22521</v>
       </c>
       <c r="D74" t="str">
-        <f>MID(A74, 6, LEN(A74)-5)</f>
+        <f t="shared" si="3"/>
         <v>HONOLULU</v>
       </c>
       <c r="E74">
@@ -5997,11 +5997,11 @@
         <v>102</v>
       </c>
       <c r="C75" t="str">
-        <f>LEFT(A75, 5)</f>
+        <f t="shared" si="2"/>
         <v>22516</v>
       </c>
       <c r="D75" t="str">
-        <f>MID(A75, 6, LEN(A75)-5)</f>
+        <f t="shared" si="3"/>
         <v>KAHULUI</v>
       </c>
       <c r="E75">
@@ -6058,11 +6058,11 @@
         <v>102</v>
       </c>
       <c r="C76" t="str">
-        <f>LEFT(A76, 5)</f>
+        <f t="shared" si="2"/>
         <v>22536</v>
       </c>
       <c r="D76" t="str">
-        <f>MID(A76, 6, LEN(A76)-5)</f>
+        <f t="shared" si="3"/>
         <v>LIHUE</v>
       </c>
       <c r="E76">
@@ -6119,11 +6119,11 @@
         <v>107</v>
       </c>
       <c r="C77" t="str">
-        <f>LEFT(A77, 5)</f>
+        <f t="shared" si="2"/>
         <v>24131</v>
       </c>
       <c r="D77" t="str">
-        <f>MID(A77, 6, LEN(A77)-5)</f>
+        <f t="shared" si="3"/>
         <v>BOISE</v>
       </c>
       <c r="E77">
@@ -6180,11 +6180,11 @@
         <v>107</v>
       </c>
       <c r="C78" t="str">
-        <f>LEFT(A78, 5)</f>
+        <f t="shared" si="2"/>
         <v>24149</v>
       </c>
       <c r="D78" t="str">
-        <f>MID(A78, 6, LEN(A78)-5)</f>
+        <f t="shared" si="3"/>
         <v>LEWISTON</v>
       </c>
       <c r="E78">
@@ -6241,11 +6241,11 @@
         <v>107</v>
       </c>
       <c r="C79" t="str">
-        <f>LEFT(A79, 5)</f>
+        <f t="shared" si="2"/>
         <v>24156</v>
       </c>
       <c r="D79" t="str">
-        <f>MID(A79, 6, LEN(A79)-5)</f>
+        <f t="shared" si="3"/>
         <v>POCATELLO</v>
       </c>
       <c r="E79">
@@ -6302,11 +6302,11 @@
         <v>111</v>
       </c>
       <c r="C80" t="str">
-        <f>LEFT(A80, 5)</f>
+        <f t="shared" si="2"/>
         <v>94846</v>
       </c>
       <c r="D80" t="str">
-        <f>MID(A80, 6, LEN(A80)-5)</f>
+        <f t="shared" si="3"/>
         <v>CHICAGO</v>
       </c>
       <c r="E80">
@@ -6363,11 +6363,11 @@
         <v>111</v>
       </c>
       <c r="C81" t="str">
-        <f>LEFT(A81, 5)</f>
+        <f t="shared" si="2"/>
         <v>14923</v>
       </c>
       <c r="D81" t="str">
-        <f>MID(A81, 6, LEN(A81)-5)</f>
+        <f t="shared" si="3"/>
         <v>MOLINE</v>
       </c>
       <c r="E81">
@@ -6424,11 +6424,11 @@
         <v>111</v>
       </c>
       <c r="C82" t="str">
-        <f>LEFT(A82, 5)</f>
+        <f t="shared" si="2"/>
         <v>14842</v>
       </c>
       <c r="D82" t="str">
-        <f>MID(A82, 6, LEN(A82)-5)</f>
+        <f t="shared" si="3"/>
         <v>PEORIA</v>
       </c>
       <c r="E82">
@@ -6485,11 +6485,11 @@
         <v>111</v>
       </c>
       <c r="C83" t="str">
-        <f>LEFT(A83, 5)</f>
+        <f t="shared" si="2"/>
         <v>94822</v>
       </c>
       <c r="D83" t="str">
-        <f>MID(A83, 6, LEN(A83)-5)</f>
+        <f t="shared" si="3"/>
         <v>ROCKFORD</v>
       </c>
       <c r="E83">
@@ -6546,11 +6546,11 @@
         <v>111</v>
       </c>
       <c r="C84" t="str">
-        <f>LEFT(A84, 5)</f>
+        <f t="shared" si="2"/>
         <v>93822</v>
       </c>
       <c r="D84" t="str">
-        <f>MID(A84, 6, LEN(A84)-5)</f>
+        <f t="shared" si="3"/>
         <v>SPRINGFIELD</v>
       </c>
       <c r="E84">
@@ -6607,11 +6607,11 @@
         <v>117</v>
       </c>
       <c r="C85" t="str">
-        <f>LEFT(A85, 5)</f>
+        <f t="shared" si="2"/>
         <v>93817</v>
       </c>
       <c r="D85" t="str">
-        <f>MID(A85, 6, LEN(A85)-5)</f>
+        <f t="shared" si="3"/>
         <v>EVANSVILLE</v>
       </c>
       <c r="E85">
@@ -6668,11 +6668,11 @@
         <v>117</v>
       </c>
       <c r="C86" t="str">
-        <f>LEFT(A86, 5)</f>
+        <f t="shared" si="2"/>
         <v>14827</v>
       </c>
       <c r="D86" t="str">
-        <f>MID(A86, 6, LEN(A86)-5)</f>
+        <f t="shared" si="3"/>
         <v>FORT WAYNE</v>
       </c>
       <c r="E86">
@@ -6729,11 +6729,11 @@
         <v>117</v>
       </c>
       <c r="C87" t="str">
-        <f>LEFT(A87, 5)</f>
+        <f t="shared" si="2"/>
         <v>93819</v>
       </c>
       <c r="D87" t="str">
-        <f>MID(A87, 6, LEN(A87)-5)</f>
+        <f t="shared" si="3"/>
         <v>INDIANAPOLIS</v>
       </c>
       <c r="E87">
@@ -6790,11 +6790,11 @@
         <v>117</v>
       </c>
       <c r="C88" t="str">
-        <f>LEFT(A88, 5)</f>
+        <f t="shared" si="2"/>
         <v>14848</v>
       </c>
       <c r="D88" t="str">
-        <f>MID(A88, 6, LEN(A88)-5)</f>
+        <f t="shared" si="3"/>
         <v>SOUTH BEND</v>
       </c>
       <c r="E88">
@@ -6851,11 +6851,11 @@
         <v>122</v>
       </c>
       <c r="C89" t="str">
-        <f>LEFT(A89, 5)</f>
+        <f t="shared" si="2"/>
         <v>14933</v>
       </c>
       <c r="D89" t="str">
-        <f>MID(A89, 6, LEN(A89)-5)</f>
+        <f t="shared" si="3"/>
         <v>DES MOINES</v>
       </c>
       <c r="E89">
@@ -6912,11 +6912,11 @@
         <v>122</v>
       </c>
       <c r="C90" t="str">
-        <f>LEFT(A90, 5)</f>
+        <f t="shared" si="2"/>
         <v>94908</v>
       </c>
       <c r="D90" t="str">
-        <f>MID(A90, 6, LEN(A90)-5)</f>
+        <f t="shared" si="3"/>
         <v>DUBUQUE</v>
       </c>
       <c r="E90">
@@ -6973,11 +6973,11 @@
         <v>122</v>
       </c>
       <c r="C91" t="str">
-        <f>LEFT(A91, 5)</f>
+        <f t="shared" si="2"/>
         <v>14943</v>
       </c>
       <c r="D91" t="str">
-        <f>MID(A91, 6, LEN(A91)-5)</f>
+        <f t="shared" si="3"/>
         <v>SIOUX CITY</v>
       </c>
       <c r="E91">
@@ -7034,11 +7034,11 @@
         <v>122</v>
       </c>
       <c r="C92" t="str">
-        <f>LEFT(A92, 5)</f>
+        <f t="shared" si="2"/>
         <v>94910</v>
       </c>
       <c r="D92" t="str">
-        <f>MID(A92, 6, LEN(A92)-5)</f>
+        <f t="shared" si="3"/>
         <v>WATERLOO</v>
       </c>
       <c r="E92">
@@ -7095,11 +7095,11 @@
         <v>127</v>
       </c>
       <c r="C93" t="str">
-        <f>LEFT(A93, 5)</f>
+        <f t="shared" si="2"/>
         <v>13984</v>
       </c>
       <c r="D93" t="str">
-        <f>MID(A93, 6, LEN(A93)-5)</f>
+        <f t="shared" si="3"/>
         <v>CONCORDIA</v>
       </c>
       <c r="E93">
@@ -7156,11 +7156,11 @@
         <v>127</v>
       </c>
       <c r="C94" t="str">
-        <f>LEFT(A94, 5)</f>
+        <f t="shared" si="2"/>
         <v>13985</v>
       </c>
       <c r="D94" t="str">
-        <f>MID(A94, 6, LEN(A94)-5)</f>
+        <f t="shared" si="3"/>
         <v>DODGE CITY</v>
       </c>
       <c r="E94">
@@ -7217,11 +7217,11 @@
         <v>127</v>
       </c>
       <c r="C95" t="str">
-        <f>LEFT(A95, 5)</f>
+        <f t="shared" si="2"/>
         <v>23065</v>
       </c>
       <c r="D95" t="str">
-        <f>MID(A95, 6, LEN(A95)-5)</f>
+        <f t="shared" si="3"/>
         <v>GOODLAND</v>
       </c>
       <c r="E95">
@@ -7278,11 +7278,11 @@
         <v>127</v>
       </c>
       <c r="C96" t="str">
-        <f>LEFT(A96, 5)</f>
+        <f t="shared" si="2"/>
         <v>13996</v>
       </c>
       <c r="D96" t="str">
-        <f>MID(A96, 6, LEN(A96)-5)</f>
+        <f t="shared" si="3"/>
         <v>TOPEKA</v>
       </c>
       <c r="E96">
@@ -7339,11 +7339,11 @@
         <v>127</v>
       </c>
       <c r="C97" t="str">
-        <f>LEFT(A97, 5)</f>
+        <f t="shared" si="2"/>
         <v>03928</v>
       </c>
       <c r="D97" t="str">
-        <f>MID(A97, 6, LEN(A97)-5)</f>
+        <f t="shared" si="3"/>
         <v>WICHITA</v>
       </c>
       <c r="E97">
@@ -7400,11 +7400,11 @@
         <v>133</v>
       </c>
       <c r="C98" t="str">
-        <f>LEFT(A98, 5)</f>
+        <f t="shared" si="2"/>
         <v>03889</v>
       </c>
       <c r="D98" t="str">
-        <f>MID(A98, 6, LEN(A98)-5)</f>
+        <f t="shared" si="3"/>
         <v>JACKSON</v>
       </c>
       <c r="E98">
@@ -7461,11 +7461,11 @@
         <v>133</v>
       </c>
       <c r="C99" t="str">
-        <f>LEFT(A99, 5)</f>
+        <f t="shared" si="2"/>
         <v>93820</v>
       </c>
       <c r="D99" t="str">
-        <f>MID(A99, 6, LEN(A99)-5)</f>
+        <f t="shared" si="3"/>
         <v>LEXINGTON</v>
       </c>
       <c r="E99">
@@ -7522,11 +7522,11 @@
         <v>133</v>
       </c>
       <c r="C100" t="str">
-        <f>LEFT(A100, 5)</f>
+        <f t="shared" si="2"/>
         <v>93821</v>
       </c>
       <c r="D100" t="str">
-        <f>MID(A100, 6, LEN(A100)-5)</f>
+        <f t="shared" si="3"/>
         <v>LOUISVILLE</v>
       </c>
       <c r="E100">
@@ -7583,11 +7583,11 @@
         <v>133</v>
       </c>
       <c r="C101" t="str">
-        <f>LEFT(A101, 5)</f>
+        <f t="shared" si="2"/>
         <v>03816</v>
       </c>
       <c r="D101" t="str">
-        <f>MID(A101, 6, LEN(A101)-5)</f>
+        <f t="shared" si="3"/>
         <v>PADUCAH</v>
       </c>
       <c r="E101">
@@ -7644,11 +7644,11 @@
         <v>138</v>
       </c>
       <c r="C102" t="str">
-        <f>LEFT(A102, 5)</f>
+        <f t="shared" si="2"/>
         <v>13970</v>
       </c>
       <c r="D102" t="str">
-        <f>MID(A102, 6, LEN(A102)-5)</f>
+        <f t="shared" si="3"/>
         <v>BATON ROUGE</v>
       </c>
       <c r="E102">
@@ -7705,11 +7705,11 @@
         <v>138</v>
       </c>
       <c r="C103" t="str">
-        <f>LEFT(A103, 5)</f>
+        <f t="shared" si="2"/>
         <v>03937</v>
       </c>
       <c r="D103" t="str">
-        <f>MID(A103, 6, LEN(A103)-5)</f>
+        <f t="shared" si="3"/>
         <v>LAKE CHARLES</v>
       </c>
       <c r="E103">
@@ -7766,11 +7766,11 @@
         <v>138</v>
       </c>
       <c r="C104" t="str">
-        <f>LEFT(A104, 5)</f>
+        <f t="shared" si="2"/>
         <v>12916</v>
       </c>
       <c r="D104" t="str">
-        <f>MID(A104, 6, LEN(A104)-5)</f>
+        <f t="shared" si="3"/>
         <v>NEW ORLEANS</v>
       </c>
       <c r="E104">
@@ -7827,11 +7827,11 @@
         <v>138</v>
       </c>
       <c r="C105" t="str">
-        <f>LEFT(A105, 5)</f>
+        <f t="shared" si="2"/>
         <v>13957</v>
       </c>
       <c r="D105" t="str">
-        <f>MID(A105, 6, LEN(A105)-5)</f>
+        <f t="shared" si="3"/>
         <v>SHREVEPORT</v>
       </c>
       <c r="E105">
@@ -7888,11 +7888,11 @@
         <v>143</v>
       </c>
       <c r="C106" t="str">
-        <f>LEFT(A106, 5)</f>
+        <f t="shared" si="2"/>
         <v>14607</v>
       </c>
       <c r="D106" t="str">
-        <f>MID(A106, 6, LEN(A106)-5)</f>
+        <f t="shared" si="3"/>
         <v>CARIBOU</v>
       </c>
       <c r="E106">
@@ -7949,11 +7949,11 @@
         <v>143</v>
       </c>
       <c r="C107" t="str">
-        <f>LEFT(A107, 5)</f>
+        <f t="shared" si="2"/>
         <v>14764</v>
       </c>
       <c r="D107" t="str">
-        <f>MID(A107, 6, LEN(A107)-5)</f>
+        <f t="shared" si="3"/>
         <v>PORTLAND</v>
       </c>
       <c r="E107">
@@ -8010,11 +8010,11 @@
         <v>146</v>
       </c>
       <c r="C108" t="str">
-        <f>LEFT(A108, 5)</f>
+        <f t="shared" si="2"/>
         <v>93721</v>
       </c>
       <c r="D108" t="str">
-        <f>MID(A108, 6, LEN(A108)-5)</f>
+        <f t="shared" si="3"/>
         <v>BALTIMORE</v>
       </c>
       <c r="E108">
@@ -8071,11 +8071,11 @@
         <v>148</v>
       </c>
       <c r="C109" t="str">
-        <f>LEFT(A109, 5)</f>
+        <f t="shared" si="2"/>
         <v>14753</v>
       </c>
       <c r="D109" t="str">
-        <f>MID(A109, 6, LEN(A109)-5)</f>
+        <f t="shared" si="3"/>
         <v>BLUE HILL</v>
       </c>
       <c r="E109">
@@ -8132,11 +8132,11 @@
         <v>148</v>
       </c>
       <c r="C110" t="str">
-        <f>LEFT(A110, 5)</f>
+        <f t="shared" si="2"/>
         <v>14739</v>
       </c>
       <c r="D110" t="str">
-        <f>MID(A110, 6, LEN(A110)-5)</f>
+        <f t="shared" si="3"/>
         <v>BOSTON</v>
       </c>
       <c r="E110">
@@ -8193,11 +8193,11 @@
         <v>148</v>
       </c>
       <c r="C111" t="str">
-        <f>LEFT(A111, 5)</f>
+        <f t="shared" si="2"/>
         <v>94746</v>
       </c>
       <c r="D111" t="str">
-        <f>MID(A111, 6, LEN(A111)-5)</f>
+        <f t="shared" si="3"/>
         <v>WORCESTER</v>
       </c>
       <c r="E111">
@@ -8254,11 +8254,11 @@
         <v>152</v>
       </c>
       <c r="C112" t="str">
-        <f>LEFT(A112, 5)</f>
+        <f t="shared" si="2"/>
         <v>94849</v>
       </c>
       <c r="D112" t="str">
-        <f>MID(A112, 6, LEN(A112)-5)</f>
+        <f t="shared" si="3"/>
         <v>ALPENA</v>
       </c>
       <c r="E112">
@@ -8315,11 +8315,11 @@
         <v>152</v>
       </c>
       <c r="C113" t="str">
-        <f>LEFT(A113, 5)</f>
+        <f t="shared" si="2"/>
         <v>94847</v>
       </c>
       <c r="D113" t="str">
-        <f>MID(A113, 6, LEN(A113)-5)</f>
+        <f t="shared" si="3"/>
         <v>DETROIT</v>
       </c>
       <c r="E113">
@@ -8376,11 +8376,11 @@
         <v>152</v>
       </c>
       <c r="C114" t="str">
-        <f>LEFT(A114, 5)</f>
+        <f t="shared" si="2"/>
         <v>14826</v>
       </c>
       <c r="D114" t="str">
-        <f>MID(A114, 6, LEN(A114)-5)</f>
+        <f t="shared" si="3"/>
         <v>FLINT</v>
       </c>
       <c r="E114">
@@ -8437,11 +8437,11 @@
         <v>152</v>
       </c>
       <c r="C115" t="str">
-        <f>LEFT(A115, 5)</f>
+        <f t="shared" si="2"/>
         <v>94860</v>
       </c>
       <c r="D115" t="str">
-        <f>MID(A115, 6, LEN(A115)-5)</f>
+        <f t="shared" si="3"/>
         <v>GRAND RAPIDS</v>
       </c>
       <c r="E115">
@@ -8498,11 +8498,11 @@
         <v>152</v>
       </c>
       <c r="C116" t="str">
-        <f>LEFT(A116, 5)</f>
+        <f t="shared" si="2"/>
         <v>94814</v>
       </c>
       <c r="D116" t="str">
-        <f>MID(A116, 6, LEN(A116)-5)</f>
+        <f t="shared" si="3"/>
         <v>HOUGHTON LAKE</v>
       </c>
       <c r="E116">
@@ -8559,11 +8559,11 @@
         <v>152</v>
       </c>
       <c r="C117" t="str">
-        <f>LEFT(A117, 5)</f>
+        <f t="shared" si="2"/>
         <v>14836</v>
       </c>
       <c r="D117" t="str">
-        <f>MID(A117, 6, LEN(A117)-5)</f>
+        <f t="shared" si="3"/>
         <v>LANSING</v>
       </c>
       <c r="E117">
@@ -8620,11 +8620,11 @@
         <v>152</v>
       </c>
       <c r="C118" t="str">
-        <f>LEFT(A118, 5)</f>
+        <f t="shared" si="2"/>
         <v>14840</v>
       </c>
       <c r="D118" t="str">
-        <f>MID(A118, 6, LEN(A118)-5)</f>
+        <f t="shared" si="3"/>
         <v>MUSKEGON</v>
       </c>
       <c r="E118">
@@ -8681,11 +8681,11 @@
         <v>152</v>
       </c>
       <c r="C119" t="str">
-        <f>LEFT(A119, 5)</f>
+        <f t="shared" si="2"/>
         <v>14847</v>
       </c>
       <c r="D119" t="str">
-        <f>MID(A119, 6, LEN(A119)-5)</f>
+        <f t="shared" si="3"/>
         <v>SAULT STE. MARIE</v>
       </c>
       <c r="E119">
@@ -8742,11 +8742,11 @@
         <v>161</v>
       </c>
       <c r="C120" t="str">
-        <f>LEFT(A120, 5)</f>
+        <f t="shared" si="2"/>
         <v>14913</v>
       </c>
       <c r="D120" t="str">
-        <f>MID(A120, 6, LEN(A120)-5)</f>
+        <f t="shared" si="3"/>
         <v>DULUTH</v>
       </c>
       <c r="E120">
@@ -8803,11 +8803,11 @@
         <v>161</v>
       </c>
       <c r="C121" t="str">
-        <f>LEFT(A121, 5)</f>
+        <f t="shared" si="2"/>
         <v>14918</v>
       </c>
       <c r="D121" t="str">
-        <f>MID(A121, 6, LEN(A121)-5)</f>
+        <f t="shared" si="3"/>
         <v>INTERNATIONAL FALLS</v>
       </c>
       <c r="E121">
@@ -8864,11 +8864,11 @@
         <v>161</v>
       </c>
       <c r="C122" t="str">
-        <f>LEFT(A122, 5)</f>
+        <f t="shared" si="2"/>
         <v>14922</v>
       </c>
       <c r="D122" t="str">
-        <f>MID(A122, 6, LEN(A122)-5)</f>
+        <f t="shared" si="3"/>
         <v>MINNEAPOLIS-ST.PAUL</v>
       </c>
       <c r="E122">
@@ -8925,11 +8925,11 @@
         <v>161</v>
       </c>
       <c r="C123" t="str">
-        <f>LEFT(A123, 5)</f>
+        <f t="shared" si="2"/>
         <v>14925</v>
       </c>
       <c r="D123" t="str">
-        <f>MID(A123, 6, LEN(A123)-5)</f>
+        <f t="shared" si="3"/>
         <v>ROCHESTER</v>
       </c>
       <c r="E123">
@@ -8986,11 +8986,11 @@
         <v>161</v>
       </c>
       <c r="C124" t="str">
-        <f>LEFT(A124, 5)</f>
+        <f t="shared" si="2"/>
         <v>14926</v>
       </c>
       <c r="D124" t="str">
-        <f>MID(A124, 6, LEN(A124)-5)</f>
+        <f t="shared" si="3"/>
         <v>SAINT CLOUD</v>
       </c>
       <c r="E124">
@@ -9047,11 +9047,11 @@
         <v>167</v>
       </c>
       <c r="C125" t="str">
-        <f>LEFT(A125, 5)</f>
+        <f t="shared" si="2"/>
         <v>03940</v>
       </c>
       <c r="D125" t="str">
-        <f>MID(A125, 6, LEN(A125)-5)</f>
+        <f t="shared" si="3"/>
         <v>JACKSON</v>
       </c>
       <c r="E125">
@@ -9108,11 +9108,11 @@
         <v>167</v>
       </c>
       <c r="C126" t="str">
-        <f>LEFT(A126, 5)</f>
+        <f t="shared" si="2"/>
         <v>13865</v>
       </c>
       <c r="D126" t="str">
-        <f>MID(A126, 6, LEN(A126)-5)</f>
+        <f t="shared" si="3"/>
         <v>MERIDIAN</v>
       </c>
       <c r="E126">
@@ -9169,11 +9169,11 @@
         <v>167</v>
       </c>
       <c r="C127" t="str">
-        <f>LEFT(A127, 5)</f>
+        <f t="shared" si="2"/>
         <v>93862</v>
       </c>
       <c r="D127" t="str">
-        <f>MID(A127, 6, LEN(A127)-5)</f>
+        <f t="shared" si="3"/>
         <v>TUPELO</v>
       </c>
       <c r="E127">
@@ -9230,11 +9230,11 @@
         <v>171</v>
       </c>
       <c r="C128" t="str">
-        <f>LEFT(A128, 5)</f>
+        <f t="shared" si="2"/>
         <v>03945</v>
       </c>
       <c r="D128" t="str">
-        <f>MID(A128, 6, LEN(A128)-5)</f>
+        <f t="shared" si="3"/>
         <v>COLUMBIA</v>
       </c>
       <c r="E128">
@@ -9291,11 +9291,11 @@
         <v>171</v>
       </c>
       <c r="C129" t="str">
-        <f>LEFT(A129, 5)</f>
+        <f t="shared" si="2"/>
         <v>03947</v>
       </c>
       <c r="D129" t="str">
-        <f>MID(A129, 6, LEN(A129)-5)</f>
+        <f t="shared" si="3"/>
         <v>KANSAS CITY</v>
       </c>
       <c r="E129">
@@ -9352,11 +9352,11 @@
         <v>171</v>
       </c>
       <c r="C130" t="str">
-        <f>LEFT(A130, 5)</f>
+        <f t="shared" ref="C130:C193" si="4">LEFT(A130, 5)</f>
         <v>13994</v>
       </c>
       <c r="D130" t="str">
-        <f>MID(A130, 6, LEN(A130)-5)</f>
+        <f t="shared" ref="D130:D193" si="5">MID(A130, 6, LEN(A130)-5)</f>
         <v>ST. LOUIS</v>
       </c>
       <c r="E130">
@@ -9413,11 +9413,11 @@
         <v>171</v>
       </c>
       <c r="C131" t="str">
-        <f>LEFT(A131, 5)</f>
+        <f t="shared" si="4"/>
         <v>13995</v>
       </c>
       <c r="D131" t="str">
-        <f>MID(A131, 6, LEN(A131)-5)</f>
+        <f t="shared" si="5"/>
         <v>SPRINGFIELD</v>
       </c>
       <c r="E131">
@@ -9474,11 +9474,11 @@
         <v>176</v>
       </c>
       <c r="C132" t="str">
-        <f>LEFT(A132, 5)</f>
+        <f t="shared" si="4"/>
         <v>24033</v>
       </c>
       <c r="D132" t="str">
-        <f>MID(A132, 6, LEN(A132)-5)</f>
+        <f t="shared" si="5"/>
         <v>BILLINGS</v>
       </c>
       <c r="E132">
@@ -9535,11 +9535,11 @@
         <v>176</v>
       </c>
       <c r="C133" t="str">
-        <f>LEFT(A133, 5)</f>
+        <f t="shared" si="4"/>
         <v>94008</v>
       </c>
       <c r="D133" t="str">
-        <f>MID(A133, 6, LEN(A133)-5)</f>
+        <f t="shared" si="5"/>
         <v>GLASGOW</v>
       </c>
       <c r="E133">
@@ -9596,11 +9596,11 @@
         <v>176</v>
       </c>
       <c r="C134" t="str">
-        <f>LEFT(A134, 5)</f>
+        <f t="shared" si="4"/>
         <v>24143</v>
       </c>
       <c r="D134" t="str">
-        <f>MID(A134, 6, LEN(A134)-5)</f>
+        <f t="shared" si="5"/>
         <v>GREAT FALLS</v>
       </c>
       <c r="E134">
@@ -9657,11 +9657,11 @@
         <v>176</v>
       </c>
       <c r="C135" t="str">
-        <f>LEFT(A135, 5)</f>
+        <f t="shared" si="4"/>
         <v>94012</v>
       </c>
       <c r="D135" t="str">
-        <f>MID(A135, 6, LEN(A135)-5)</f>
+        <f t="shared" si="5"/>
         <v>HAVRE</v>
       </c>
       <c r="E135">
@@ -9718,11 +9718,11 @@
         <v>176</v>
       </c>
       <c r="C136" t="str">
-        <f>LEFT(A136, 5)</f>
+        <f t="shared" si="4"/>
         <v>24144</v>
       </c>
       <c r="D136" t="str">
-        <f>MID(A136, 6, LEN(A136)-5)</f>
+        <f t="shared" si="5"/>
         <v>HELENA</v>
       </c>
       <c r="E136">
@@ -9779,11 +9779,11 @@
         <v>176</v>
       </c>
       <c r="C137" t="str">
-        <f>LEFT(A137, 5)</f>
+        <f t="shared" si="4"/>
         <v>24146</v>
       </c>
       <c r="D137" t="str">
-        <f>MID(A137, 6, LEN(A137)-5)</f>
+        <f t="shared" si="5"/>
         <v>KALISPELL</v>
       </c>
       <c r="E137">
@@ -9840,11 +9840,11 @@
         <v>176</v>
       </c>
       <c r="C138" t="str">
-        <f>LEFT(A138, 5)</f>
+        <f t="shared" si="4"/>
         <v>24153</v>
       </c>
       <c r="D138" t="str">
-        <f>MID(A138, 6, LEN(A138)-5)</f>
+        <f t="shared" si="5"/>
         <v>MISSOULA</v>
       </c>
       <c r="E138">
@@ -9901,11 +9901,11 @@
         <v>184</v>
       </c>
       <c r="C139" t="str">
-        <f>LEFT(A139, 5)</f>
+        <f t="shared" si="4"/>
         <v>14935</v>
       </c>
       <c r="D139" t="str">
-        <f>MID(A139, 6, LEN(A139)-5)</f>
+        <f t="shared" si="5"/>
         <v>GRAND ISLAND</v>
       </c>
       <c r="E139">
@@ -9962,11 +9962,11 @@
         <v>184</v>
       </c>
       <c r="C140" t="str">
-        <f>LEFT(A140, 5)</f>
+        <f t="shared" si="4"/>
         <v>14939</v>
       </c>
       <c r="D140" t="str">
-        <f>MID(A140, 6, LEN(A140)-5)</f>
+        <f t="shared" si="5"/>
         <v>LINCOLN</v>
       </c>
       <c r="E140">
@@ -10023,11 +10023,11 @@
         <v>184</v>
       </c>
       <c r="C141" t="str">
-        <f>LEFT(A141, 5)</f>
+        <f t="shared" si="4"/>
         <v>14941</v>
       </c>
       <c r="D141" t="str">
-        <f>MID(A141, 6, LEN(A141)-5)</f>
+        <f t="shared" si="5"/>
         <v>NORFOLK</v>
       </c>
       <c r="E141">
@@ -10084,11 +10084,11 @@
         <v>184</v>
       </c>
       <c r="C142" t="str">
-        <f>LEFT(A142, 5)</f>
+        <f t="shared" si="4"/>
         <v>24023</v>
       </c>
       <c r="D142" t="str">
-        <f>MID(A142, 6, LEN(A142)-5)</f>
+        <f t="shared" si="5"/>
         <v>NORTH PLATTE</v>
       </c>
       <c r="E142">
@@ -10145,11 +10145,11 @@
         <v>184</v>
       </c>
       <c r="C143" t="str">
-        <f>LEFT(A143, 5)</f>
+        <f t="shared" si="4"/>
         <v>14942</v>
       </c>
       <c r="D143" t="str">
-        <f>MID(A143, 6, LEN(A143)-5)</f>
+        <f t="shared" si="5"/>
         <v>OMAHA</v>
       </c>
       <c r="E143">
@@ -10206,11 +10206,11 @@
         <v>184</v>
       </c>
       <c r="C144" t="str">
-        <f>LEFT(A144, 5)</f>
+        <f t="shared" si="4"/>
         <v>24028</v>
       </c>
       <c r="D144" t="str">
-        <f>MID(A144, 6, LEN(A144)-5)</f>
+        <f t="shared" si="5"/>
         <v>SCOTTSBLUFF</v>
       </c>
       <c r="E144">
@@ -10267,11 +10267,11 @@
         <v>184</v>
       </c>
       <c r="C145" t="str">
-        <f>LEFT(A145, 5)</f>
+        <f t="shared" si="4"/>
         <v>24032</v>
       </c>
       <c r="D145" t="str">
-        <f>MID(A145, 6, LEN(A145)-5)</f>
+        <f t="shared" si="5"/>
         <v>VALENTINE</v>
       </c>
       <c r="E145">
@@ -10328,11 +10328,11 @@
         <v>192</v>
       </c>
       <c r="C146" t="str">
-        <f>LEFT(A146, 5)</f>
+        <f t="shared" si="4"/>
         <v>24121</v>
       </c>
       <c r="D146" t="str">
-        <f>MID(A146, 6, LEN(A146)-5)</f>
+        <f t="shared" si="5"/>
         <v>ELKO</v>
       </c>
       <c r="E146">
@@ -10389,11 +10389,11 @@
         <v>192</v>
       </c>
       <c r="C147" t="str">
-        <f>LEFT(A147, 5)</f>
+        <f t="shared" si="4"/>
         <v>23154</v>
       </c>
       <c r="D147" t="str">
-        <f>MID(A147, 6, LEN(A147)-5)</f>
+        <f t="shared" si="5"/>
         <v>ELY</v>
       </c>
       <c r="E147">
@@ -10450,11 +10450,11 @@
         <v>192</v>
       </c>
       <c r="C148" t="str">
-        <f>LEFT(A148, 5)</f>
+        <f t="shared" si="4"/>
         <v>23169</v>
       </c>
       <c r="D148" t="str">
-        <f>MID(A148, 6, LEN(A148)-5)</f>
+        <f t="shared" si="5"/>
         <v>LAS VEGAS</v>
       </c>
       <c r="E148">
@@ -10511,11 +10511,11 @@
         <v>192</v>
       </c>
       <c r="C149" t="str">
-        <f>LEFT(A149, 5)</f>
+        <f t="shared" si="4"/>
         <v>23185</v>
       </c>
       <c r="D149" t="str">
-        <f>MID(A149, 6, LEN(A149)-5)</f>
+        <f t="shared" si="5"/>
         <v>RENO</v>
       </c>
       <c r="E149">
@@ -10572,11 +10572,11 @@
         <v>192</v>
       </c>
       <c r="C150" t="str">
-        <f>LEFT(A150, 5)</f>
+        <f t="shared" si="4"/>
         <v>24128</v>
       </c>
       <c r="D150" t="str">
-        <f>MID(A150, 6, LEN(A150)-5)</f>
+        <f t="shared" si="5"/>
         <v>WINNEMUCCA</v>
       </c>
       <c r="E150">
@@ -10633,11 +10633,11 @@
         <v>198</v>
       </c>
       <c r="C151" t="str">
-        <f>LEFT(A151, 5)</f>
+        <f t="shared" si="4"/>
         <v>14745</v>
       </c>
       <c r="D151" t="str">
-        <f>MID(A151, 6, LEN(A151)-5)</f>
+        <f t="shared" si="5"/>
         <v>CONCORD</v>
       </c>
       <c r="E151">
@@ -10694,11 +10694,11 @@
         <v>198</v>
       </c>
       <c r="C152" t="str">
-        <f>LEFT(A152, 5)</f>
+        <f t="shared" si="4"/>
         <v>14755</v>
       </c>
       <c r="D152" t="str">
-        <f>MID(A152, 6, LEN(A152)-5)</f>
+        <f t="shared" si="5"/>
         <v>MT. WASHINGTON</v>
       </c>
       <c r="E152">
@@ -10755,11 +10755,11 @@
         <v>201</v>
       </c>
       <c r="C153" t="str">
-        <f>LEFT(A153, 5)</f>
+        <f t="shared" si="4"/>
         <v>93730</v>
       </c>
       <c r="D153" t="str">
-        <f>MID(A153, 6, LEN(A153)-5)</f>
+        <f t="shared" si="5"/>
         <v>ATLANTIC CITY</v>
       </c>
       <c r="E153">
@@ -10816,11 +10816,11 @@
         <v>201</v>
       </c>
       <c r="C154" t="str">
-        <f>LEFT(A154, 5)</f>
+        <f t="shared" si="4"/>
         <v>14734</v>
       </c>
       <c r="D154" t="str">
-        <f>MID(A154, 6, LEN(A154)-5)</f>
+        <f t="shared" si="5"/>
         <v>NEWARK</v>
       </c>
       <c r="E154">
@@ -10877,11 +10877,11 @@
         <v>204</v>
       </c>
       <c r="C155" t="str">
-        <f>LEFT(A155, 5)</f>
+        <f t="shared" si="4"/>
         <v>23050</v>
       </c>
       <c r="D155" t="str">
-        <f>MID(A155, 6, LEN(A155)-5)</f>
+        <f t="shared" si="5"/>
         <v>ALBUQUERQUE</v>
       </c>
       <c r="E155">
@@ -10938,11 +10938,11 @@
         <v>204</v>
       </c>
       <c r="C156" t="str">
-        <f>LEFT(A156, 5)</f>
+        <f t="shared" si="4"/>
         <v>23051</v>
       </c>
       <c r="D156" t="str">
-        <f>MID(A156, 6, LEN(A156)-5)</f>
+        <f t="shared" si="5"/>
         <v>CLAYTON</v>
       </c>
       <c r="E156">
@@ -10999,11 +10999,11 @@
         <v>204</v>
       </c>
       <c r="C157" t="str">
-        <f>LEFT(A157, 5)</f>
+        <f t="shared" si="4"/>
         <v>23009</v>
       </c>
       <c r="D157" t="str">
-        <f>MID(A157, 6, LEN(A157)-5)</f>
+        <f t="shared" si="5"/>
         <v>ROSWELL</v>
       </c>
       <c r="E157">
@@ -11060,11 +11060,11 @@
         <v>208</v>
       </c>
       <c r="C158" t="str">
-        <f>LEFT(A158, 5)</f>
+        <f t="shared" si="4"/>
         <v>14735</v>
       </c>
       <c r="D158" t="str">
-        <f>MID(A158, 6, LEN(A158)-5)</f>
+        <f t="shared" si="5"/>
         <v>ALBANY</v>
       </c>
       <c r="E158">
@@ -11121,11 +11121,11 @@
         <v>208</v>
       </c>
       <c r="C159" t="str">
-        <f>LEFT(A159, 5)</f>
+        <f t="shared" si="4"/>
         <v>04725</v>
       </c>
       <c r="D159" t="str">
-        <f>MID(A159, 6, LEN(A159)-5)</f>
+        <f t="shared" si="5"/>
         <v>BINGHAMTON</v>
       </c>
       <c r="E159">
@@ -11182,11 +11182,11 @@
         <v>208</v>
       </c>
       <c r="C160" t="str">
-        <f>LEFT(A160, 5)</f>
+        <f t="shared" si="4"/>
         <v>14733</v>
       </c>
       <c r="D160" t="str">
-        <f>MID(A160, 6, LEN(A160)-5)</f>
+        <f t="shared" si="5"/>
         <v>BUFFALO</v>
       </c>
       <c r="E160">
@@ -11243,11 +11243,11 @@
         <v>208</v>
       </c>
       <c r="C161" t="str">
-        <f>LEFT(A161, 5)</f>
+        <f t="shared" si="4"/>
         <v>04781</v>
       </c>
       <c r="D161" t="str">
-        <f>MID(A161, 6, LEN(A161)-5)</f>
+        <f t="shared" si="5"/>
         <v>ISLIP</v>
       </c>
       <c r="E161">
@@ -11304,11 +11304,11 @@
         <v>208</v>
       </c>
       <c r="C162" t="str">
-        <f>LEFT(A162, 5)</f>
+        <f t="shared" si="4"/>
         <v>94728</v>
       </c>
       <c r="D162" t="str">
-        <f>MID(A162, 6, LEN(A162)-5)</f>
+        <f t="shared" si="5"/>
         <v>NEW YORK Central Park</v>
       </c>
       <c r="E162">
@@ -11365,11 +11365,11 @@
         <v>208</v>
       </c>
       <c r="C163" t="str">
-        <f>LEFT(A163, 5)</f>
+        <f t="shared" si="4"/>
         <v>94789</v>
       </c>
       <c r="D163" t="str">
-        <f>MID(A163, 6, LEN(A163)-5)</f>
+        <f t="shared" si="5"/>
         <v>NEW YORK JFK AP</v>
       </c>
       <c r="E163">
@@ -11426,11 +11426,11 @@
         <v>208</v>
       </c>
       <c r="C164" t="str">
-        <f>LEFT(A164, 5)</f>
+        <f t="shared" si="4"/>
         <v>14732</v>
       </c>
       <c r="D164" t="str">
-        <f>MID(A164, 6, LEN(A164)-5)</f>
+        <f t="shared" si="5"/>
         <v>NEW YORK Laguardia AP</v>
       </c>
       <c r="E164">
@@ -11487,11 +11487,11 @@
         <v>208</v>
       </c>
       <c r="C165" t="str">
-        <f>LEFT(A165, 5)</f>
+        <f t="shared" si="4"/>
         <v>14768</v>
       </c>
       <c r="D165" t="str">
-        <f>MID(A165, 6, LEN(A165)-5)</f>
+        <f t="shared" si="5"/>
         <v>ROCHESTER</v>
       </c>
       <c r="E165">
@@ -11548,11 +11548,11 @@
         <v>208</v>
       </c>
       <c r="C166" t="str">
-        <f>LEFT(A166, 5)</f>
+        <f t="shared" si="4"/>
         <v>14771</v>
       </c>
       <c r="D166" t="str">
-        <f>MID(A166, 6, LEN(A166)-5)</f>
+        <f t="shared" si="5"/>
         <v>SYRACUSE</v>
       </c>
       <c r="E166">
@@ -11609,11 +11609,11 @@
         <v>218</v>
       </c>
       <c r="C167" t="str">
-        <f>LEFT(A167, 5)</f>
+        <f t="shared" si="4"/>
         <v>03812</v>
       </c>
       <c r="D167" t="str">
-        <f>MID(A167, 6, LEN(A167)-5)</f>
+        <f t="shared" si="5"/>
         <v>ASHEVILLE</v>
       </c>
       <c r="E167">
@@ -11670,11 +11670,11 @@
         <v>218</v>
       </c>
       <c r="C168" t="str">
-        <f>LEFT(A168, 5)</f>
+        <f t="shared" si="4"/>
         <v>93729</v>
       </c>
       <c r="D168" t="str">
-        <f>MID(A168, 6, LEN(A168)-5)</f>
+        <f t="shared" si="5"/>
         <v>CAPE HATTERAS</v>
       </c>
       <c r="E168">
@@ -11731,11 +11731,11 @@
         <v>218</v>
       </c>
       <c r="C169" t="str">
-        <f>LEFT(A169, 5)</f>
+        <f t="shared" si="4"/>
         <v>13881</v>
       </c>
       <c r="D169" t="str">
-        <f>MID(A169, 6, LEN(A169)-5)</f>
+        <f t="shared" si="5"/>
         <v>CHARLOTTE</v>
       </c>
       <c r="E169">
@@ -11792,11 +11792,11 @@
         <v>218</v>
       </c>
       <c r="C170" t="str">
-        <f>LEFT(A170, 5)</f>
+        <f t="shared" si="4"/>
         <v>13723</v>
       </c>
       <c r="D170" t="str">
-        <f>MID(A170, 6, LEN(A170)-5)</f>
+        <f t="shared" si="5"/>
         <v>GREENSBORO-WNSTN-SALM-HGHPT</v>
       </c>
       <c r="E170">
@@ -11853,11 +11853,11 @@
         <v>218</v>
       </c>
       <c r="C171" t="str">
-        <f>LEFT(A171, 5)</f>
+        <f t="shared" si="4"/>
         <v>13722</v>
       </c>
       <c r="D171" t="str">
-        <f>MID(A171, 6, LEN(A171)-5)</f>
+        <f t="shared" si="5"/>
         <v>RALEIGH</v>
       </c>
       <c r="E171">
@@ -11914,11 +11914,11 @@
         <v>218</v>
       </c>
       <c r="C172" t="str">
-        <f>LEFT(A172, 5)</f>
+        <f t="shared" si="4"/>
         <v>13748</v>
       </c>
       <c r="D172" t="str">
-        <f>MID(A172, 6, LEN(A172)-5)</f>
+        <f t="shared" si="5"/>
         <v>WILMINGTON</v>
       </c>
       <c r="E172">
@@ -11975,11 +11975,11 @@
         <v>225</v>
       </c>
       <c r="C173" t="str">
-        <f>LEFT(A173, 5)</f>
+        <f t="shared" si="4"/>
         <v>24011</v>
       </c>
       <c r="D173" t="str">
-        <f>MID(A173, 6, LEN(A173)-5)</f>
+        <f t="shared" si="5"/>
         <v>BISMARCK</v>
       </c>
       <c r="E173">
@@ -12036,11 +12036,11 @@
         <v>225</v>
       </c>
       <c r="C174" t="str">
-        <f>LEFT(A174, 5)</f>
+        <f t="shared" si="4"/>
         <v>14914</v>
       </c>
       <c r="D174" t="str">
-        <f>MID(A174, 6, LEN(A174)-5)</f>
+        <f t="shared" si="5"/>
         <v>FARGO</v>
       </c>
       <c r="E174">
@@ -12097,11 +12097,11 @@
         <v>225</v>
       </c>
       <c r="C175" t="str">
-        <f>LEFT(A175, 5)</f>
+        <f t="shared" si="4"/>
         <v>14916</v>
       </c>
       <c r="D175" t="str">
-        <f>MID(A175, 6, LEN(A175)-5)</f>
+        <f t="shared" si="5"/>
         <v>GRAND FORKS</v>
       </c>
       <c r="E175">
@@ -12158,11 +12158,11 @@
         <v>225</v>
       </c>
       <c r="C176" t="str">
-        <f>LEFT(A176, 5)</f>
+        <f t="shared" si="4"/>
         <v>94014</v>
       </c>
       <c r="D176" t="str">
-        <f>MID(A176, 6, LEN(A176)-5)</f>
+        <f t="shared" si="5"/>
         <v>WILLISTON</v>
       </c>
       <c r="E176">
@@ -12219,11 +12219,11 @@
         <v>230</v>
       </c>
       <c r="C177" t="str">
-        <f>LEFT(A177, 5)</f>
+        <f t="shared" si="4"/>
         <v>14895</v>
       </c>
       <c r="D177" t="str">
-        <f>MID(A177, 6, LEN(A177)-5)</f>
+        <f t="shared" si="5"/>
         <v>AKRON</v>
       </c>
       <c r="E177">
@@ -12280,11 +12280,11 @@
         <v>230</v>
       </c>
       <c r="C178" t="str">
-        <f>LEFT(A178, 5)</f>
+        <f t="shared" si="4"/>
         <v>93814</v>
       </c>
       <c r="D178" t="str">
-        <f>MID(A178, 6, LEN(A178)-5)</f>
+        <f t="shared" si="5"/>
         <v>CINCINNATI</v>
       </c>
       <c r="E178">
@@ -12341,11 +12341,11 @@
         <v>230</v>
       </c>
       <c r="C179" t="str">
-        <f>LEFT(A179, 5)</f>
+        <f t="shared" si="4"/>
         <v>14820</v>
       </c>
       <c r="D179" t="str">
-        <f>MID(A179, 6, LEN(A179)-5)</f>
+        <f t="shared" si="5"/>
         <v>CLEVELAND</v>
       </c>
       <c r="E179">
@@ -12402,11 +12402,11 @@
         <v>230</v>
       </c>
       <c r="C180" t="str">
-        <f>LEFT(A180, 5)</f>
+        <f t="shared" si="4"/>
         <v>14821</v>
       </c>
       <c r="D180" t="str">
-        <f>MID(A180, 6, LEN(A180)-5)</f>
+        <f t="shared" si="5"/>
         <v>COLUMBUS</v>
       </c>
       <c r="E180">
@@ -12463,11 +12463,11 @@
         <v>230</v>
       </c>
       <c r="C181" t="str">
-        <f>LEFT(A181, 5)</f>
+        <f t="shared" si="4"/>
         <v>93815</v>
       </c>
       <c r="D181" t="str">
-        <f>MID(A181, 6, LEN(A181)-5)</f>
+        <f t="shared" si="5"/>
         <v>DAYTON</v>
       </c>
       <c r="E181">
@@ -12524,11 +12524,11 @@
         <v>230</v>
       </c>
       <c r="C182" t="str">
-        <f>LEFT(A182, 5)</f>
+        <f t="shared" si="4"/>
         <v>14891</v>
       </c>
       <c r="D182" t="str">
-        <f>MID(A182, 6, LEN(A182)-5)</f>
+        <f t="shared" si="5"/>
         <v>MANSFIELD</v>
       </c>
       <c r="E182">
@@ -12585,11 +12585,11 @@
         <v>230</v>
       </c>
       <c r="C183" t="str">
-        <f>LEFT(A183, 5)</f>
+        <f t="shared" si="4"/>
         <v>94830</v>
       </c>
       <c r="D183" t="str">
-        <f>MID(A183, 6, LEN(A183)-5)</f>
+        <f t="shared" si="5"/>
         <v>TOLEDO</v>
       </c>
       <c r="E183">
@@ -12646,11 +12646,11 @@
         <v>230</v>
       </c>
       <c r="C184" t="str">
-        <f>LEFT(A184, 5)</f>
+        <f t="shared" si="4"/>
         <v>14852</v>
       </c>
       <c r="D184" t="str">
-        <f>MID(A184, 6, LEN(A184)-5)</f>
+        <f t="shared" si="5"/>
         <v>YOUNGSTOWN</v>
       </c>
       <c r="E184">
@@ -12707,11 +12707,11 @@
         <v>239</v>
       </c>
       <c r="C185" t="str">
-        <f>LEFT(A185, 5)</f>
+        <f t="shared" si="4"/>
         <v>13967</v>
       </c>
       <c r="D185" t="str">
-        <f>MID(A185, 6, LEN(A185)-5)</f>
+        <f t="shared" si="5"/>
         <v>OKLAHOMA CITY</v>
       </c>
       <c r="E185">
@@ -12768,11 +12768,11 @@
         <v>239</v>
       </c>
       <c r="C186" t="str">
-        <f>LEFT(A186, 5)</f>
+        <f t="shared" si="4"/>
         <v>13968</v>
       </c>
       <c r="D186" t="str">
-        <f>MID(A186, 6, LEN(A186)-5)</f>
+        <f t="shared" si="5"/>
         <v>TULSA</v>
       </c>
       <c r="E186">
@@ -12829,11 +12829,11 @@
         <v>242</v>
       </c>
       <c r="C187" t="str">
-        <f>LEFT(A187, 5)</f>
+        <f t="shared" si="4"/>
         <v>94224</v>
       </c>
       <c r="D187" t="str">
-        <f>MID(A187, 6, LEN(A187)-5)</f>
+        <f t="shared" si="5"/>
         <v>ASTORIA</v>
       </c>
       <c r="E187">
@@ -12890,11 +12890,11 @@
         <v>242</v>
       </c>
       <c r="C188" t="str">
-        <f>LEFT(A188, 5)</f>
+        <f t="shared" si="4"/>
         <v>94185</v>
       </c>
       <c r="D188" t="str">
-        <f>MID(A188, 6, LEN(A188)-5)</f>
+        <f t="shared" si="5"/>
         <v>BURNS</v>
       </c>
       <c r="E188">
@@ -12951,11 +12951,11 @@
         <v>242</v>
       </c>
       <c r="C189" t="str">
-        <f>LEFT(A189, 5)</f>
+        <f t="shared" si="4"/>
         <v>24221</v>
       </c>
       <c r="D189" t="str">
-        <f>MID(A189, 6, LEN(A189)-5)</f>
+        <f t="shared" si="5"/>
         <v>EUGENE</v>
       </c>
       <c r="E189">
@@ -13012,11 +13012,11 @@
         <v>242</v>
       </c>
       <c r="C190" t="str">
-        <f>LEFT(A190, 5)</f>
+        <f t="shared" si="4"/>
         <v>24225</v>
       </c>
       <c r="D190" t="str">
-        <f>MID(A190, 6, LEN(A190)-5)</f>
+        <f t="shared" si="5"/>
         <v>MEDFORD</v>
       </c>
       <c r="E190">
@@ -13073,11 +13073,11 @@
         <v>242</v>
       </c>
       <c r="C191" t="str">
-        <f>LEFT(A191, 5)</f>
+        <f t="shared" si="4"/>
         <v>24155</v>
       </c>
       <c r="D191" t="str">
-        <f>MID(A191, 6, LEN(A191)-5)</f>
+        <f t="shared" si="5"/>
         <v>PENDLETON</v>
       </c>
       <c r="E191">
@@ -13134,11 +13134,11 @@
         <v>242</v>
       </c>
       <c r="C192" t="str">
-        <f>LEFT(A192, 5)</f>
+        <f t="shared" si="4"/>
         <v>24229</v>
       </c>
       <c r="D192" t="str">
-        <f>MID(A192, 6, LEN(A192)-5)</f>
+        <f t="shared" si="5"/>
         <v>PORTLAND</v>
       </c>
       <c r="E192">
@@ -13195,11 +13195,11 @@
         <v>242</v>
       </c>
       <c r="C193" t="str">
-        <f>LEFT(A193, 5)</f>
+        <f t="shared" si="4"/>
         <v>24232</v>
       </c>
       <c r="D193" t="str">
-        <f>MID(A193, 6, LEN(A193)-5)</f>
+        <f t="shared" si="5"/>
         <v>SALEM</v>
       </c>
       <c r="E193">
@@ -13256,11 +13256,11 @@
         <v>242</v>
       </c>
       <c r="C194" t="str">
-        <f>LEFT(A194, 5)</f>
+        <f t="shared" ref="C194:C257" si="6">LEFT(A194, 5)</f>
         <v>24235</v>
       </c>
       <c r="D194" t="str">
-        <f>MID(A194, 6, LEN(A194)-5)</f>
+        <f t="shared" ref="D194:D257" si="7">MID(A194, 6, LEN(A194)-5)</f>
         <v>SEXTON SUMMIT</v>
       </c>
       <c r="E194">
@@ -13317,11 +13317,11 @@
         <v>251</v>
       </c>
       <c r="C195" t="str">
-        <f>LEFT(A195, 5)</f>
+        <f t="shared" si="6"/>
         <v>14737</v>
       </c>
       <c r="D195" t="str">
-        <f>MID(A195, 6, LEN(A195)-5)</f>
+        <f t="shared" si="7"/>
         <v>ALLENTOWN</v>
       </c>
       <c r="E195">
@@ -13378,11 +13378,11 @@
         <v>251</v>
       </c>
       <c r="C196" t="str">
-        <f>LEFT(A196, 5)</f>
+        <f t="shared" si="6"/>
         <v>14860</v>
       </c>
       <c r="D196" t="str">
-        <f>MID(A196, 6, LEN(A196)-5)</f>
+        <f t="shared" si="7"/>
         <v>ERIE</v>
       </c>
       <c r="E196">
@@ -13439,11 +13439,11 @@
         <v>251</v>
       </c>
       <c r="C197" t="str">
-        <f>LEFT(A197, 5)</f>
+        <f t="shared" si="6"/>
         <v>14711</v>
       </c>
       <c r="D197" t="str">
-        <f>MID(A197, 6, LEN(A197)-5)</f>
+        <f t="shared" si="7"/>
         <v>MIDDLETOWN/HARRISBURG</v>
       </c>
       <c r="E197">
@@ -13500,11 +13500,11 @@
         <v>251</v>
       </c>
       <c r="C198" t="str">
-        <f>LEFT(A198, 5)</f>
+        <f t="shared" si="6"/>
         <v>13739</v>
       </c>
       <c r="D198" t="str">
-        <f>MID(A198, 6, LEN(A198)-5)</f>
+        <f t="shared" si="7"/>
         <v>PHILADELPHIA</v>
       </c>
       <c r="E198">
@@ -13561,11 +13561,11 @@
         <v>251</v>
       </c>
       <c r="C199" t="str">
-        <f>LEFT(A199, 5)</f>
+        <f t="shared" si="6"/>
         <v>94823</v>
       </c>
       <c r="D199" t="str">
-        <f>MID(A199, 6, LEN(A199)-5)</f>
+        <f t="shared" si="7"/>
         <v>PITTSBURGH</v>
       </c>
       <c r="E199">
@@ -13622,11 +13622,11 @@
         <v>251</v>
       </c>
       <c r="C200" t="str">
-        <f>LEFT(A200, 5)</f>
+        <f t="shared" si="6"/>
         <v>14777</v>
       </c>
       <c r="D200" t="str">
-        <f>MID(A200, 6, LEN(A200)-5)</f>
+        <f t="shared" si="7"/>
         <v>AVOCA</v>
       </c>
       <c r="E200">
@@ -13683,11 +13683,11 @@
         <v>251</v>
       </c>
       <c r="C201" t="str">
-        <f>LEFT(A201, 5)</f>
+        <f t="shared" si="6"/>
         <v>14778</v>
       </c>
       <c r="D201" t="str">
-        <f>MID(A201, 6, LEN(A201)-5)</f>
+        <f t="shared" si="7"/>
         <v>WILLIAMSPORT</v>
       </c>
       <c r="E201">
@@ -13744,11 +13744,11 @@
         <v>259</v>
       </c>
       <c r="C202" t="str">
-        <f>LEFT(A202, 5)</f>
+        <f t="shared" si="6"/>
         <v>14765</v>
       </c>
       <c r="D202" t="str">
-        <f>MID(A202, 6, LEN(A202)-5)</f>
+        <f t="shared" si="7"/>
         <v>PROVIDENCE</v>
       </c>
       <c r="E202">
@@ -13805,11 +13805,11 @@
         <v>261</v>
       </c>
       <c r="C203" t="str">
-        <f>LEFT(A203, 5)</f>
+        <f t="shared" si="6"/>
         <v>13782</v>
       </c>
       <c r="D203" t="str">
-        <f>MID(A203, 6, LEN(A203)-5)</f>
+        <f t="shared" si="7"/>
         <v>CHARLESTON</v>
       </c>
       <c r="E203">
@@ -13866,11 +13866,11 @@
         <v>261</v>
       </c>
       <c r="C204" t="str">
-        <f>LEFT(A204, 5)</f>
+        <f t="shared" si="6"/>
         <v>13883</v>
       </c>
       <c r="D204" t="str">
-        <f>MID(A204, 6, LEN(A204)-5)</f>
+        <f t="shared" si="7"/>
         <v>COLUMBIA</v>
       </c>
       <c r="E204">
@@ -13927,11 +13927,11 @@
         <v>261</v>
       </c>
       <c r="C205" t="str">
-        <f>LEFT(A205, 5)</f>
+        <f t="shared" si="6"/>
         <v>03870</v>
       </c>
       <c r="D205" t="str">
-        <f>MID(A205, 6, LEN(A205)-5)</f>
+        <f t="shared" si="7"/>
         <v>GREENVILLE-SPARTANBURG</v>
       </c>
       <c r="E205">
@@ -13988,11 +13988,11 @@
         <v>265</v>
       </c>
       <c r="C206" t="str">
-        <f>LEFT(A206, 5)</f>
+        <f t="shared" si="6"/>
         <v>14929</v>
       </c>
       <c r="D206" t="str">
-        <f>MID(A206, 6, LEN(A206)-5)</f>
+        <f t="shared" si="7"/>
         <v>ABERDEEN</v>
       </c>
       <c r="E206">
@@ -14049,11 +14049,11 @@
         <v>265</v>
       </c>
       <c r="C207" t="str">
-        <f>LEFT(A207, 5)</f>
+        <f t="shared" si="6"/>
         <v>14936</v>
       </c>
       <c r="D207" t="str">
-        <f>MID(A207, 6, LEN(A207)-5)</f>
+        <f t="shared" si="7"/>
         <v>HURON</v>
       </c>
       <c r="E207">
@@ -14110,11 +14110,11 @@
         <v>265</v>
       </c>
       <c r="C208" t="str">
-        <f>LEFT(A208, 5)</f>
+        <f t="shared" si="6"/>
         <v>24090</v>
       </c>
       <c r="D208" t="str">
-        <f>MID(A208, 6, LEN(A208)-5)</f>
+        <f t="shared" si="7"/>
         <v>RAPID CITY</v>
       </c>
       <c r="E208">
@@ -14171,11 +14171,11 @@
         <v>265</v>
       </c>
       <c r="C209" t="str">
-        <f>LEFT(A209, 5)</f>
+        <f t="shared" si="6"/>
         <v>14944</v>
       </c>
       <c r="D209" t="str">
-        <f>MID(A209, 6, LEN(A209)-5)</f>
+        <f t="shared" si="7"/>
         <v>SIOUX FALLS</v>
       </c>
       <c r="E209">
@@ -14232,11 +14232,11 @@
         <v>270</v>
       </c>
       <c r="C210" t="str">
-        <f>LEFT(A210, 5)</f>
+        <f t="shared" si="6"/>
         <v>13877</v>
       </c>
       <c r="D210" t="str">
-        <f>MID(A210, 6, LEN(A210)-5)</f>
+        <f t="shared" si="7"/>
         <v>BRISTOL-JHNSN CTY-KNGSPRT</v>
       </c>
       <c r="E210">
@@ -14293,11 +14293,11 @@
         <v>270</v>
       </c>
       <c r="C211" t="str">
-        <f>LEFT(A211, 5)</f>
+        <f t="shared" si="6"/>
         <v>13882</v>
       </c>
       <c r="D211" t="str">
-        <f>MID(A211, 6, LEN(A211)-5)</f>
+        <f t="shared" si="7"/>
         <v>CHATTANOOGA</v>
       </c>
       <c r="E211">
@@ -14354,11 +14354,11 @@
         <v>270</v>
       </c>
       <c r="C212" t="str">
-        <f>LEFT(A212, 5)</f>
+        <f t="shared" si="6"/>
         <v>13891</v>
       </c>
       <c r="D212" t="str">
-        <f>MID(A212, 6, LEN(A212)-5)</f>
+        <f t="shared" si="7"/>
         <v>KNOXVILLE</v>
       </c>
       <c r="E212">
@@ -14415,11 +14415,11 @@
         <v>270</v>
       </c>
       <c r="C213" t="str">
-        <f>LEFT(A213, 5)</f>
+        <f t="shared" si="6"/>
         <v>13893</v>
       </c>
       <c r="D213" t="str">
-        <f>MID(A213, 6, LEN(A213)-5)</f>
+        <f t="shared" si="7"/>
         <v>MEMPHIS</v>
       </c>
       <c r="E213">
@@ -14476,11 +14476,11 @@
         <v>270</v>
       </c>
       <c r="C214" t="str">
-        <f>LEFT(A214, 5)</f>
+        <f t="shared" si="6"/>
         <v>13897</v>
       </c>
       <c r="D214" t="str">
-        <f>MID(A214, 6, LEN(A214)-5)</f>
+        <f t="shared" si="7"/>
         <v>NASHVILLE</v>
       </c>
       <c r="E214">
@@ -14537,11 +14537,11 @@
         <v>270</v>
       </c>
       <c r="C215" t="str">
-        <f>LEFT(A215, 5)</f>
+        <f t="shared" si="6"/>
         <v>03841</v>
       </c>
       <c r="D215" t="str">
-        <f>MID(A215, 6, LEN(A215)-5)</f>
+        <f t="shared" si="7"/>
         <v>OAK RIDGE</v>
       </c>
       <c r="E215">
@@ -14598,11 +14598,11 @@
         <v>277</v>
       </c>
       <c r="C216" t="str">
-        <f>LEFT(A216, 5)</f>
+        <f t="shared" si="6"/>
         <v>13962</v>
       </c>
       <c r="D216" t="str">
-        <f>MID(A216, 6, LEN(A216)-5)</f>
+        <f t="shared" si="7"/>
         <v>ABILENE</v>
       </c>
       <c r="E216">
@@ -14659,11 +14659,11 @@
         <v>277</v>
       </c>
       <c r="C217" t="str">
-        <f>LEFT(A217, 5)</f>
+        <f t="shared" si="6"/>
         <v>23047</v>
       </c>
       <c r="D217" t="str">
-        <f>MID(A217, 6, LEN(A217)-5)</f>
+        <f t="shared" si="7"/>
         <v>AMARILLO</v>
       </c>
       <c r="E217">
@@ -14720,11 +14720,11 @@
         <v>277</v>
       </c>
       <c r="C218" t="str">
-        <f>LEFT(A218, 5)</f>
+        <f t="shared" si="6"/>
         <v>13958</v>
       </c>
       <c r="D218" t="str">
-        <f>MID(A218, 6, LEN(A218)-5)</f>
+        <f t="shared" si="7"/>
         <v>AUSTIN</v>
       </c>
       <c r="E218">
@@ -14781,11 +14781,11 @@
         <v>277</v>
       </c>
       <c r="C219" t="str">
-        <f>LEFT(A219, 5)</f>
+        <f t="shared" si="6"/>
         <v>12919</v>
       </c>
       <c r="D219" t="str">
-        <f>MID(A219, 6, LEN(A219)-5)</f>
+        <f t="shared" si="7"/>
         <v>BROWNSVILLE</v>
       </c>
       <c r="E219">
@@ -14842,11 +14842,11 @@
         <v>277</v>
       </c>
       <c r="C220" t="str">
-        <f>LEFT(A220, 5)</f>
+        <f t="shared" si="6"/>
         <v>12924</v>
       </c>
       <c r="D220" t="str">
-        <f>MID(A220, 6, LEN(A220)-5)</f>
+        <f t="shared" si="7"/>
         <v>CORPUS CHRISTI</v>
       </c>
       <c r="E220">
@@ -14903,11 +14903,11 @@
         <v>277</v>
       </c>
       <c r="C221" t="str">
-        <f>LEFT(A221, 5)</f>
+        <f t="shared" si="6"/>
         <v>13960</v>
       </c>
       <c r="D221" t="str">
-        <f>MID(A221, 6, LEN(A221)-5)</f>
+        <f t="shared" si="7"/>
         <v>DALLAS</v>
       </c>
       <c r="E221">
@@ -14964,11 +14964,11 @@
         <v>277</v>
       </c>
       <c r="C222" t="str">
-        <f>LEFT(A222, 5)</f>
+        <f t="shared" si="6"/>
         <v>22010</v>
       </c>
       <c r="D222" t="str">
-        <f>MID(A222, 6, LEN(A222)-5)</f>
+        <f t="shared" si="7"/>
         <v>DEL RIO</v>
       </c>
       <c r="E222">
@@ -15025,11 +15025,11 @@
         <v>277</v>
       </c>
       <c r="C223" t="str">
-        <f>LEFT(A223, 5)</f>
+        <f t="shared" si="6"/>
         <v>23044</v>
       </c>
       <c r="D223" t="str">
-        <f>MID(A223, 6, LEN(A223)-5)</f>
+        <f t="shared" si="7"/>
         <v>EL PASO</v>
       </c>
       <c r="E223">
@@ -15086,11 +15086,11 @@
         <v>277</v>
       </c>
       <c r="C224" t="str">
-        <f>LEFT(A224, 5)</f>
+        <f t="shared" si="6"/>
         <v>12923</v>
       </c>
       <c r="D224" t="str">
-        <f>MID(A224, 6, LEN(A224)-5)</f>
+        <f t="shared" si="7"/>
         <v>GALVESTON</v>
       </c>
       <c r="E224">
@@ -15147,11 +15147,11 @@
         <v>277</v>
       </c>
       <c r="C225" t="str">
-        <f>LEFT(A225, 5)</f>
+        <f t="shared" si="6"/>
         <v>12960</v>
       </c>
       <c r="D225" t="str">
-        <f>MID(A225, 6, LEN(A225)-5)</f>
+        <f t="shared" si="7"/>
         <v>HOUSTON</v>
       </c>
       <c r="E225">
@@ -15208,11 +15208,11 @@
         <v>277</v>
       </c>
       <c r="C226" t="str">
-        <f>LEFT(A226, 5)</f>
+        <f t="shared" si="6"/>
         <v>23042</v>
       </c>
       <c r="D226" t="str">
-        <f>MID(A226, 6, LEN(A226)-5)</f>
+        <f t="shared" si="7"/>
         <v>LUBBOCK</v>
       </c>
       <c r="E226">
@@ -15269,11 +15269,11 @@
         <v>277</v>
       </c>
       <c r="C227" t="str">
-        <f>LEFT(A227, 5)</f>
+        <f t="shared" si="6"/>
         <v>23023</v>
       </c>
       <c r="D227" t="str">
-        <f>MID(A227, 6, LEN(A227)-5)</f>
+        <f t="shared" si="7"/>
         <v>MIDLAND-ODESSA</v>
       </c>
       <c r="E227">
@@ -15330,11 +15330,11 @@
         <v>277</v>
       </c>
       <c r="C228" t="str">
-        <f>LEFT(A228, 5)</f>
+        <f t="shared" si="6"/>
         <v>12917</v>
       </c>
       <c r="D228" t="str">
-        <f>MID(A228, 6, LEN(A228)-5)</f>
+        <f t="shared" si="7"/>
         <v>PORT ARTHUR</v>
       </c>
       <c r="E228">
@@ -15391,11 +15391,11 @@
         <v>277</v>
       </c>
       <c r="C229" t="str">
-        <f>LEFT(A229, 5)</f>
+        <f t="shared" si="6"/>
         <v>23034</v>
       </c>
       <c r="D229" t="str">
-        <f>MID(A229, 6, LEN(A229)-5)</f>
+        <f t="shared" si="7"/>
         <v>SAN ANGELO</v>
       </c>
       <c r="E229">
@@ -15452,11 +15452,11 @@
         <v>277</v>
       </c>
       <c r="C230" t="str">
-        <f>LEFT(A230, 5)</f>
+        <f t="shared" si="6"/>
         <v>12921</v>
       </c>
       <c r="D230" t="str">
-        <f>MID(A230, 6, LEN(A230)-5)</f>
+        <f t="shared" si="7"/>
         <v>SAN ANTONIO</v>
       </c>
       <c r="E230">
@@ -15513,11 +15513,11 @@
         <v>277</v>
       </c>
       <c r="C231" t="str">
-        <f>LEFT(A231, 5)</f>
+        <f t="shared" si="6"/>
         <v>12912</v>
       </c>
       <c r="D231" t="str">
-        <f>MID(A231, 6, LEN(A231)-5)</f>
+        <f t="shared" si="7"/>
         <v>VICTORIA</v>
       </c>
       <c r="E231">
@@ -15574,11 +15574,11 @@
         <v>277</v>
       </c>
       <c r="C232" t="str">
-        <f>LEFT(A232, 5)</f>
+        <f t="shared" si="6"/>
         <v>13959</v>
       </c>
       <c r="D232" t="str">
-        <f>MID(A232, 6, LEN(A232)-5)</f>
+        <f t="shared" si="7"/>
         <v>WACO</v>
       </c>
       <c r="E232">
@@ -15635,11 +15635,11 @@
         <v>277</v>
       </c>
       <c r="C233" t="str">
-        <f>LEFT(A233, 5)</f>
+        <f t="shared" si="6"/>
         <v>13966</v>
       </c>
       <c r="D233" t="str">
-        <f>MID(A233, 6, LEN(A233)-5)</f>
+        <f t="shared" si="7"/>
         <v>WICHITA FALLS</v>
       </c>
       <c r="E233">
@@ -15696,11 +15696,11 @@
         <v>296</v>
       </c>
       <c r="C234" t="str">
-        <f>LEFT(A234, 5)</f>
+        <f t="shared" si="6"/>
         <v>24127</v>
       </c>
       <c r="D234" t="str">
-        <f>MID(A234, 6, LEN(A234)-5)</f>
+        <f t="shared" si="7"/>
         <v>SALT LAKE CITY</v>
       </c>
       <c r="E234">
@@ -15757,11 +15757,11 @@
         <v>298</v>
       </c>
       <c r="C235" t="str">
-        <f>LEFT(A235, 5)</f>
+        <f t="shared" si="6"/>
         <v>14742</v>
       </c>
       <c r="D235" t="str">
-        <f>MID(A235, 6, LEN(A235)-5)</f>
+        <f t="shared" si="7"/>
         <v>BURLINGTON</v>
       </c>
       <c r="E235">
@@ -15818,11 +15818,11 @@
         <v>300</v>
       </c>
       <c r="C236" t="str">
-        <f>LEFT(A236, 5)</f>
+        <f t="shared" si="6"/>
         <v>13733</v>
       </c>
       <c r="D236" t="str">
-        <f>MID(A236, 6, LEN(A236)-5)</f>
+        <f t="shared" si="7"/>
         <v>LYNCHBURG</v>
       </c>
       <c r="E236">
@@ -15879,11 +15879,11 @@
         <v>300</v>
       </c>
       <c r="C237" t="str">
-        <f>LEFT(A237, 5)</f>
+        <f t="shared" si="6"/>
         <v>13737</v>
       </c>
       <c r="D237" t="str">
-        <f>MID(A237, 6, LEN(A237)-5)</f>
+        <f t="shared" si="7"/>
         <v>NORFOLK</v>
       </c>
       <c r="E237">
@@ -15940,11 +15940,11 @@
         <v>300</v>
       </c>
       <c r="C238" t="str">
-        <f>LEFT(A238, 5)</f>
+        <f t="shared" si="6"/>
         <v>13740</v>
       </c>
       <c r="D238" t="str">
-        <f>MID(A238, 6, LEN(A238)-5)</f>
+        <f t="shared" si="7"/>
         <v>RICHMOND</v>
       </c>
       <c r="E238">
@@ -16001,11 +16001,11 @@
         <v>300</v>
       </c>
       <c r="C239" t="str">
-        <f>LEFT(A239, 5)</f>
+        <f t="shared" si="6"/>
         <v>13741</v>
       </c>
       <c r="D239" t="str">
-        <f>MID(A239, 6, LEN(A239)-5)</f>
+        <f t="shared" si="7"/>
         <v>ROANOKE</v>
       </c>
       <c r="E239">
@@ -16062,11 +16062,11 @@
         <v>300</v>
       </c>
       <c r="C240" t="str">
-        <f>LEFT(A240, 5)</f>
+        <f t="shared" si="6"/>
         <v>93739</v>
       </c>
       <c r="D240" t="str">
-        <f>MID(A240, 6, LEN(A240)-5)</f>
+        <f t="shared" si="7"/>
         <v>WALLOPS ISLAND</v>
       </c>
       <c r="E240">
@@ -16123,11 +16123,11 @@
         <v>306</v>
       </c>
       <c r="C241" t="str">
-        <f>LEFT(A241, 5)</f>
+        <f t="shared" si="6"/>
         <v>24227</v>
       </c>
       <c r="D241" t="str">
-        <f>MID(A241, 6, LEN(A241)-5)</f>
+        <f t="shared" si="7"/>
         <v>OLYMPIA</v>
       </c>
       <c r="E241">
@@ -16184,11 +16184,11 @@
         <v>306</v>
       </c>
       <c r="C242" t="str">
-        <f>LEFT(A242, 5)</f>
+        <f t="shared" si="6"/>
         <v>94240</v>
       </c>
       <c r="D242" t="str">
-        <f>MID(A242, 6, LEN(A242)-5)</f>
+        <f t="shared" si="7"/>
         <v>QUILLAYUTE</v>
       </c>
       <c r="E242">
@@ -16245,11 +16245,11 @@
         <v>306</v>
       </c>
       <c r="C243" t="str">
-        <f>LEFT(A243, 5)</f>
+        <f t="shared" si="6"/>
         <v>24233</v>
       </c>
       <c r="D243" t="str">
-        <f>MID(A243, 6, LEN(A243)-5)</f>
+        <f t="shared" si="7"/>
         <v>SEATTLE</v>
       </c>
       <c r="E243">
@@ -16306,11 +16306,11 @@
         <v>306</v>
       </c>
       <c r="C244" t="str">
-        <f>LEFT(A244, 5)</f>
+        <f t="shared" si="6"/>
         <v>24157</v>
       </c>
       <c r="D244" t="str">
-        <f>MID(A244, 6, LEN(A244)-5)</f>
+        <f t="shared" si="7"/>
         <v>SPOKANE</v>
       </c>
       <c r="E244">
@@ -16367,11 +16367,11 @@
         <v>306</v>
       </c>
       <c r="C245" t="str">
-        <f>LEFT(A245, 5)</f>
+        <f t="shared" si="6"/>
         <v>24160</v>
       </c>
       <c r="D245" t="str">
-        <f>MID(A245, 6, LEN(A245)-5)</f>
+        <f t="shared" si="7"/>
         <v>WALLA WALLA</v>
       </c>
       <c r="E245">
@@ -16428,11 +16428,11 @@
         <v>306</v>
       </c>
       <c r="C246" t="str">
-        <f>LEFT(A246, 5)</f>
+        <f t="shared" si="6"/>
         <v>24243</v>
       </c>
       <c r="D246" t="str">
-        <f>MID(A246, 6, LEN(A246)-5)</f>
+        <f t="shared" si="7"/>
         <v>YAKIMA</v>
       </c>
       <c r="E246">
@@ -16489,11 +16489,11 @@
         <v>313</v>
       </c>
       <c r="C247" t="str">
-        <f>LEFT(A247, 5)</f>
+        <f t="shared" si="6"/>
         <v>03872</v>
       </c>
       <c r="D247" t="str">
-        <f>MID(A247, 6, LEN(A247)-5)</f>
+        <f t="shared" si="7"/>
         <v>BECKLEY</v>
       </c>
       <c r="E247">
@@ -16550,11 +16550,11 @@
         <v>313</v>
       </c>
       <c r="C248" t="str">
-        <f>LEFT(A248, 5)</f>
+        <f t="shared" si="6"/>
         <v>13866</v>
       </c>
       <c r="D248" t="str">
-        <f>MID(A248, 6, LEN(A248)-5)</f>
+        <f t="shared" si="7"/>
         <v>CHARLESTON</v>
       </c>
       <c r="E248">
@@ -16611,11 +16611,11 @@
         <v>313</v>
       </c>
       <c r="C249" t="str">
-        <f>LEFT(A249, 5)</f>
+        <f t="shared" si="6"/>
         <v>13729</v>
       </c>
       <c r="D249" t="str">
-        <f>MID(A249, 6, LEN(A249)-5)</f>
+        <f t="shared" si="7"/>
         <v>ELKINS</v>
       </c>
       <c r="E249">
@@ -16672,11 +16672,11 @@
         <v>313</v>
       </c>
       <c r="C250" t="str">
-        <f>LEFT(A250, 5)</f>
+        <f t="shared" si="6"/>
         <v>03860</v>
       </c>
       <c r="D250" t="str">
-        <f>MID(A250, 6, LEN(A250)-5)</f>
+        <f t="shared" si="7"/>
         <v>HUNTINGTON</v>
       </c>
       <c r="E250">
@@ -16733,11 +16733,11 @@
         <v>318</v>
       </c>
       <c r="C251" t="str">
-        <f>LEFT(A251, 5)</f>
+        <f t="shared" si="6"/>
         <v>14898</v>
       </c>
       <c r="D251" t="str">
-        <f>MID(A251, 6, LEN(A251)-5)</f>
+        <f t="shared" si="7"/>
         <v>GREEN BAY</v>
       </c>
       <c r="E251">
@@ -16794,11 +16794,11 @@
         <v>318</v>
       </c>
       <c r="C252" t="str">
-        <f>LEFT(A252, 5)</f>
+        <f t="shared" si="6"/>
         <v>14920</v>
       </c>
       <c r="D252" t="str">
-        <f>MID(A252, 6, LEN(A252)-5)</f>
+        <f t="shared" si="7"/>
         <v>LA CROSSE</v>
       </c>
       <c r="E252">
@@ -16855,11 +16855,11 @@
         <v>318</v>
       </c>
       <c r="C253" t="str">
-        <f>LEFT(A253, 5)</f>
+        <f t="shared" si="6"/>
         <v>14837</v>
       </c>
       <c r="D253" t="str">
-        <f>MID(A253, 6, LEN(A253)-5)</f>
+        <f t="shared" si="7"/>
         <v>MADISON</v>
       </c>
       <c r="E253">
@@ -16916,11 +16916,11 @@
         <v>318</v>
       </c>
       <c r="C254" t="str">
-        <f>LEFT(A254, 5)</f>
+        <f t="shared" si="6"/>
         <v>14839</v>
       </c>
       <c r="D254" t="str">
-        <f>MID(A254, 6, LEN(A254)-5)</f>
+        <f t="shared" si="7"/>
         <v>MILWAUKEE</v>
       </c>
       <c r="E254">
@@ -16977,11 +16977,11 @@
         <v>323</v>
       </c>
       <c r="C255" t="str">
-        <f>LEFT(A255, 5)</f>
+        <f t="shared" si="6"/>
         <v>24089</v>
       </c>
       <c r="D255" t="str">
-        <f>MID(A255, 6, LEN(A255)-5)</f>
+        <f t="shared" si="7"/>
         <v>CASPER</v>
       </c>
       <c r="E255">
@@ -17038,11 +17038,11 @@
         <v>323</v>
       </c>
       <c r="C256" t="str">
-        <f>LEFT(A256, 5)</f>
+        <f t="shared" si="6"/>
         <v>24018</v>
       </c>
       <c r="D256" t="str">
-        <f>MID(A256, 6, LEN(A256)-5)</f>
+        <f t="shared" si="7"/>
         <v>CHEYENNE</v>
       </c>
       <c r="E256">
@@ -17099,11 +17099,11 @@
         <v>323</v>
       </c>
       <c r="C257" t="str">
-        <f>LEFT(A257, 5)</f>
+        <f t="shared" si="6"/>
         <v>24021</v>
       </c>
       <c r="D257" t="str">
-        <f>MID(A257, 6, LEN(A257)-5)</f>
+        <f t="shared" si="7"/>
         <v>LANDER</v>
       </c>
       <c r="E257">
@@ -17160,11 +17160,11 @@
         <v>323</v>
       </c>
       <c r="C258" t="str">
-        <f>LEFT(A258, 5)</f>
+        <f t="shared" ref="C258:C267" si="8">LEFT(A258, 5)</f>
         <v>24029</v>
       </c>
       <c r="D258" t="str">
-        <f>MID(A258, 6, LEN(A258)-5)</f>
+        <f t="shared" ref="D258:D267" si="9">MID(A258, 6, LEN(A258)-5)</f>
         <v>SHERIDAN</v>
       </c>
       <c r="E258">
@@ -17221,11 +17221,11 @@
         <v>328</v>
       </c>
       <c r="C259" t="str">
-        <f>LEFT(A259, 5)</f>
+        <f t="shared" si="8"/>
         <v>41415</v>
       </c>
       <c r="D259" t="str">
-        <f>MID(A259, 6, LEN(A259)-5)</f>
+        <f t="shared" si="9"/>
         <v>GUAM</v>
       </c>
       <c r="E259">
@@ -17282,11 +17282,11 @@
         <v>328</v>
       </c>
       <c r="C260" t="str">
-        <f>LEFT(A260, 5)</f>
+        <f t="shared" si="8"/>
         <v>40309</v>
       </c>
       <c r="D260" t="str">
-        <f>MID(A260, 6, LEN(A260)-5)</f>
+        <f t="shared" si="9"/>
         <v>KOROR</v>
       </c>
       <c r="E260">
@@ -17343,11 +17343,11 @@
         <v>328</v>
       </c>
       <c r="C261" t="str">
-        <f>LEFT(A261, 5)</f>
+        <f t="shared" si="8"/>
         <v>40604</v>
       </c>
       <c r="D261" t="str">
-        <f>MID(A261, 6, LEN(A261)-5)</f>
+        <f t="shared" si="9"/>
         <v>KWAJALEIN- MARSHALL IS.</v>
       </c>
       <c r="E261">
@@ -17404,11 +17404,11 @@
         <v>328</v>
       </c>
       <c r="C262" t="str">
-        <f>LEFT(A262, 5)</f>
+        <f t="shared" si="8"/>
         <v>40710</v>
       </c>
       <c r="D262" t="str">
-        <f>MID(A262, 6, LEN(A262)-5)</f>
+        <f t="shared" si="9"/>
         <v>MAJURO- MARSHALL IS</v>
       </c>
       <c r="E262">
@@ -17465,11 +17465,11 @@
         <v>328</v>
       </c>
       <c r="C263" t="str">
-        <f>LEFT(A263, 5)</f>
+        <f t="shared" si="8"/>
         <v>61705</v>
       </c>
       <c r="D263" t="str">
-        <f>MID(A263, 6, LEN(A263)-5)</f>
+        <f t="shared" si="9"/>
         <v>PAGO PAGO- AMER SAMOA</v>
       </c>
       <c r="E263">
@@ -17526,11 +17526,11 @@
         <v>328</v>
       </c>
       <c r="C264" t="str">
-        <f>LEFT(A264, 5)</f>
+        <f t="shared" si="8"/>
         <v>40504</v>
       </c>
       <c r="D264" t="str">
-        <f>MID(A264, 6, LEN(A264)-5)</f>
+        <f t="shared" si="9"/>
         <v>POHNPEI- CAROLINE IS.</v>
       </c>
       <c r="E264">
@@ -17587,11 +17587,11 @@
         <v>328</v>
       </c>
       <c r="C265" t="str">
-        <f>LEFT(A265, 5)</f>
+        <f t="shared" si="8"/>
         <v>40505</v>
       </c>
       <c r="D265" t="str">
-        <f>MID(A265, 6, LEN(A265)-5)</f>
+        <f t="shared" si="9"/>
         <v>CHUUK- E. CAROLINE IS.</v>
       </c>
       <c r="E265">
@@ -17648,11 +17648,11 @@
         <v>328</v>
       </c>
       <c r="C266" t="str">
-        <f>LEFT(A266, 5)</f>
+        <f t="shared" si="8"/>
         <v>40308</v>
       </c>
       <c r="D266" t="str">
-        <f>MID(A266, 6, LEN(A266)-5)</f>
+        <f t="shared" si="9"/>
         <v>YAP- W CAROLINE IS.</v>
       </c>
       <c r="E266">
@@ -17709,11 +17709,11 @@
         <v>337</v>
       </c>
       <c r="C267" t="str">
-        <f>LEFT(A267, 5)</f>
+        <f t="shared" si="8"/>
         <v>11641</v>
       </c>
       <c r="D267" t="str">
-        <f>MID(A267, 6, LEN(A267)-5)</f>
+        <f t="shared" si="9"/>
         <v>SAN JUAN</v>
       </c>
       <c r="E267">
